--- a/src/json/w3x/SkillArchive/Master.xlsx
+++ b/src/json/w3x/SkillArchive/Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SandfoxArchive\src\json\w3x\SkillArchive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\전인탁\SandfoxArchive\src\json\w3x\SkillArchive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B0A40B-4614-436B-8EF2-BB9D5BE73F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A25BC6-0F43-452B-A1DC-5FEC698E9093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="1575" windowWidth="21600" windowHeight="11385" tabRatio="713" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="3" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5183" uniqueCount="1598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5188" uniqueCount="1621">
   <si>
     <t>NULL</t>
   </si>
@@ -5067,9 +5067,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기관총 난사</t>
-  </si>
-  <si>
     <t>감속</t>
   </si>
   <si>
@@ -5091,15 +5088,9 @@
     <t>용암채찍</t>
   </si>
   <si>
-    <t>미사일 컨테이너</t>
-  </si>
-  <si>
     <t>불사조</t>
   </si>
   <si>
-    <t>화룡의 숨결</t>
-  </si>
-  <si>
     <t>종막: 이스보셋</t>
   </si>
   <si>
@@ -5829,6 +5820,84 @@
   <si>
     <t>지정한 방향으로 거미줄을 발사하여 처음 적중하는 적에게 &lt;c:DAMAGE_TYPE&gt;&lt;real:2,2&gt;&lt;prop:DAMAGE_AMPLIFIER1/&gt;*&lt;statValue:DAMAGE_STAT1/&gt;*(1+&lt;prop:DAMAGE_PER_LEVEL/&gt;*&lt;skillLevel/&gt;)&lt;/real&gt;&lt;/c&gt;&lt;shift:DAMAGE_STAT1/&gt;의 피해를 입히고 &lt;c:$STAT_CONSTANT&gt;&lt;second:DURATION/&gt;&lt;/c&gt; 동안 &lt;c:$STAT_MOVEMENT_SPEED&gt;&lt;customString:$STAT_MOVEMENT_SPEED/&gt;를 &lt;percent:%(BUFF_ID1)DATA_REAL1/&gt;&lt;/c&gt;, &lt;c:$STAT_DEFENSE&gt;&lt;customString:$STAT_DEFENSE/&gt;을 &lt;real:2,2&gt;&lt;prop:%(BUFF_ID1)DAMAGE_AMPLIFIER1/&gt;*&lt;statValue:%(BUFF_ID1)DAMAGE_STAT1/&gt;*(1+&lt;prop:%(BUFF_ID1)DAMAGE_PER_LEVEL/&gt;*&lt;skillLevel/&gt;)&lt;/real&gt;&lt;/c&gt;&lt;shift:%(BUFF_ID1)DAMAGE_STAT1/&gt; 감소시키며 이동기 사용을 제한합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍극의 번개</t>
+  </si>
+  <si>
+    <t>구식 저격총</t>
+  </si>
+  <si>
+    <t>화염구</t>
+  </si>
+  <si>
+    <t>연쇄번개</t>
+  </si>
+  <si>
+    <t>신성의 빛</t>
+  </si>
+  <si>
+    <t>점멸</t>
+  </si>
+  <si>
+    <t>순보</t>
+  </si>
+  <si>
+    <t>다중사격</t>
+  </si>
+  <si>
+    <t>뾰족한 가시</t>
+  </si>
+  <si>
+    <t>사기의 외침</t>
+  </si>
+  <si>
+    <t>박치기</t>
+  </si>
+  <si>
+    <t>역류의 칼날</t>
+  </si>
+  <si>
+    <t>그물 던지기</t>
+  </si>
+  <si>
+    <t>투척용 도끼</t>
+  </si>
+  <si>
+    <t>가우스 라이플</t>
+  </si>
+  <si>
+    <t>청록의 파동</t>
+  </si>
+  <si>
+    <t>전기충격기 건설</t>
+  </si>
+  <si>
+    <t>돌진</t>
+  </si>
+  <si>
+    <t>단검</t>
+  </si>
+  <si>
+    <t>힘의 장갑</t>
+  </si>
+  <si>
+    <t>날카로운 갈고리</t>
+  </si>
+  <si>
+    <t>에메랄드</t>
+  </si>
+  <si>
+    <t>맑은 물</t>
+  </si>
+  <si>
+    <t>빵</t>
+  </si>
+  <si>
+    <t>행운의 은관</t>
+  </si>
+  <si>
+    <t>곡괭이</t>
   </si>
 </sst>
 </file>
@@ -8202,7 +8271,7 @@
         <v>613</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8213,7 +8282,7 @@
         <v>614</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8224,7 +8293,7 @@
         <v>615</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8235,7 +8304,7 @@
         <v>616</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9393,7 +9462,7 @@
         <v>254</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="C116" s="27" t="s">
         <v>921</v>
@@ -9407,7 +9476,7 @@
         <v>665</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -9763,7 +9832,7 @@
         <v>254</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="C150" s="27" t="s">
         <v>740</v>
@@ -9774,7 +9843,7 @@
         <v>254</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="C151" s="27" t="s">
         <v>199</v>
@@ -9785,7 +9854,7 @@
         <v>254</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="C152" s="27" t="s">
         <v>910</v>
@@ -9796,7 +9865,7 @@
         <v>254</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="C153" s="27" t="s">
         <v>828</v>
@@ -9807,7 +9876,7 @@
         <v>254</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="C154" s="27" t="s">
         <v>837</v>
@@ -9821,7 +9890,7 @@
         <v>676</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -9829,7 +9898,7 @@
         <v>254</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="C156" s="27" t="s">
         <v>1237</v>
@@ -9926,10 +9995,10 @@
         <v>254</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="C165" s="27" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -10753,7 +10822,7 @@
         <v>254</v>
       </c>
       <c r="B241" s="26" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="C241" s="26" t="s">
         <v>921</v>
@@ -10764,7 +10833,7 @@
         <v>254</v>
       </c>
       <c r="B242" s="26" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C242" s="26" t="s">
         <v>222</v>
@@ -12184,7 +12253,7 @@
         <v>1336</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>471</v>
@@ -12201,7 +12270,7 @@
         <v>1336</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>1381</v>
@@ -12338,13 +12407,13 @@
     </row>
     <row r="92" spans="1:5" s="4" customFormat="1">
       <c r="A92" s="22" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>781</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>472</v>
@@ -12352,13 +12421,13 @@
     </row>
     <row r="93" spans="1:5" s="4" customFormat="1">
       <c r="A93" s="22" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>781</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>472</v>
@@ -12716,13 +12785,13 @@
     </row>
     <row r="119" spans="1:4" s="17" customFormat="1">
       <c r="A119" s="17" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>815</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>474</v>
@@ -12730,13 +12799,13 @@
     </row>
     <row r="120" spans="1:4" s="17" customFormat="1">
       <c r="A120" s="17" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>815</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="D120" s="17" t="s">
         <v>474</v>
@@ -12847,82 +12916,82 @@
         <v>264</v>
       </c>
       <c r="D1" s="34" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>1482</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>1483</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>1484</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1431</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1525</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1529</v>
-      </c>
-      <c r="J1" s="45" t="s">
+      <c r="M1" s="7" t="s">
         <v>1485</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>1486</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>1487</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>1488</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>1489</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>1490</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>1491</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>1492</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>1493</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>1494</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>1495</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>1496</v>
-      </c>
       <c r="V1" s="179" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="W1" s="7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>1453</v>
       </c>
-      <c r="X1" s="7" t="s">
-        <v>1456</v>
-      </c>
       <c r="Y1" s="55" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AB1" s="254" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="AC1" s="253" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="AD1" s="74"/>
       <c r="AE1" s="3"/>
@@ -12950,10 +13019,10 @@
         <v>138</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="J2" s="46" t="s">
         <v>915</v>
@@ -13007,13 +13076,13 @@
         <v>1099</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="AB2" s="255" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="AC2" s="241" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="AD2" s="75"/>
       <c r="AE2" s="4"/>
@@ -13041,10 +13110,10 @@
         <v>293</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="J3" s="83" t="s">
         <v>296</v>
@@ -13289,7 +13358,7 @@
     </row>
     <row r="6" spans="1:31" s="28" customFormat="1">
       <c r="A6" s="28" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>86</v>
@@ -13482,11 +13551,11 @@
       <c r="D8" s="35"/>
       <c r="J8" s="46"/>
       <c r="K8" s="6" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -13502,7 +13571,7 @@
       <c r="Y8" s="56"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="AB8" s="255"/>
       <c r="AC8" s="241"/>
@@ -13923,7 +13992,7 @@
       </c>
       <c r="D35" s="39"/>
       <c r="H35" s="3" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>233</v>
@@ -15943,10 +16012,10 @@
   <dimension ref="A1:CN134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP8" sqref="AP8"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -16013,91 +16082,91 @@
         <v>1090</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>1434</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>1436</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>1446</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>1447</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>1449</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>1450</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>1451</v>
-      </c>
       <c r="AH1" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>1429</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>1430</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>1431</v>
-      </c>
       <c r="AM1" s="1" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="AQ1" s="45">
         <v>2000</v>
@@ -16124,100 +16193,100 @@
         <v>2090</v>
       </c>
       <c r="AY1" s="7" t="s">
+        <v>1454</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
+        <v>1455</v>
+      </c>
+      <c r="BA1" s="7" t="s">
+        <v>1456</v>
+      </c>
+      <c r="BB1" s="7" t="s">
         <v>1457</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="BC1" s="7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="BD1" s="7" t="s">
         <v>1458</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BE1" s="7" t="s">
         <v>1459</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BF1" s="7" t="s">
         <v>1460</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BG1" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="BH1" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BI1" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="BJ1" s="7" t="s">
+        <v>1464</v>
+      </c>
+      <c r="BK1" s="7" t="s">
+        <v>1465</v>
+      </c>
+      <c r="BL1" s="7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="BM1" s="179" t="s">
+        <v>1449</v>
+      </c>
+      <c r="BN1" s="7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="BO1" s="7" t="s">
+        <v>1451</v>
+      </c>
+      <c r="BP1" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="BQ1" s="7" t="s">
+        <v>1453</v>
+      </c>
+      <c r="BR1" s="55" t="s">
+        <v>1468</v>
+      </c>
+      <c r="BS1" s="8" t="s">
+        <v>1469</v>
+      </c>
+      <c r="BT1" s="8" t="s">
         <v>1470</v>
       </c>
-      <c r="BD1" s="7" t="s">
-        <v>1461</v>
-      </c>
-      <c r="BE1" s="7" t="s">
-        <v>1462</v>
-      </c>
-      <c r="BF1" s="7" t="s">
-        <v>1463</v>
-      </c>
-      <c r="BG1" s="7" t="s">
-        <v>1464</v>
-      </c>
-      <c r="BH1" s="7" t="s">
-        <v>1465</v>
-      </c>
-      <c r="BI1" s="7" t="s">
-        <v>1466</v>
-      </c>
-      <c r="BJ1" s="7" t="s">
-        <v>1467</v>
-      </c>
-      <c r="BK1" s="7" t="s">
-        <v>1468</v>
-      </c>
-      <c r="BL1" s="7" t="s">
-        <v>1469</v>
-      </c>
-      <c r="BM1" s="179" t="s">
-        <v>1452</v>
-      </c>
-      <c r="BN1" s="7" t="s">
-        <v>1453</v>
-      </c>
-      <c r="BO1" s="7" t="s">
-        <v>1454</v>
-      </c>
-      <c r="BP1" s="7" t="s">
-        <v>1455</v>
-      </c>
-      <c r="BQ1" s="7" t="s">
-        <v>1456</v>
-      </c>
-      <c r="BR1" s="55" t="s">
+      <c r="BU1" s="8" t="s">
         <v>1471</v>
       </c>
-      <c r="BS1" s="8" t="s">
+      <c r="BV1" s="8" t="s">
         <v>1472</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="BW1" s="8" t="s">
         <v>1473</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="BX1" s="8" t="s">
         <v>1474</v>
       </c>
-      <c r="BV1" s="8" t="s">
+      <c r="BY1" s="8" t="s">
         <v>1475</v>
       </c>
-      <c r="BW1" s="8" t="s">
+      <c r="BZ1" s="8" t="s">
+        <v>1554</v>
+      </c>
+      <c r="CA1" s="65" t="s">
         <v>1476</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="CB1" s="9" t="s">
         <v>1477</v>
       </c>
-      <c r="BY1" s="8" t="s">
+      <c r="CC1" s="74" t="s">
         <v>1478</v>
       </c>
-      <c r="BZ1" s="8" t="s">
-        <v>1557</v>
-      </c>
-      <c r="CA1" s="65" t="s">
+      <c r="CD1" s="3" t="s">
         <v>1479</v>
-      </c>
-      <c r="CB1" s="9" t="s">
-        <v>1480</v>
-      </c>
-      <c r="CC1" s="74" t="s">
-        <v>1481</v>
-      </c>
-      <c r="CD1" s="3" t="s">
-        <v>1482</v>
       </c>
       <c r="CE1" s="34" t="s">
         <v>234</v>
@@ -16364,16 +16433,16 @@
         <v>138</v>
       </c>
       <c r="AM2" s="14" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="AN2" s="14" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="AO2" s="14" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="AP2" s="14" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="AQ2" s="46" t="s">
         <v>147</v>
@@ -16481,7 +16550,7 @@
         <v>1046</v>
       </c>
       <c r="BZ2" s="5" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="CA2" s="66" t="s">
         <v>221</v>
@@ -16640,16 +16709,16 @@
         <v>293</v>
       </c>
       <c r="AM3" s="16" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="AN3" s="16" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="AO3" s="16" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="AP3" s="16" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="AQ3" s="47" t="s">
         <v>296</v>
@@ -17723,10 +17792,10 @@
         <v>834</v>
       </c>
       <c r="AM7" s="14" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="AN7" s="14" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="AP7" s="14" t="s">
         <v>834</v>
@@ -17821,7 +17890,7 @@
         <v>840</v>
       </c>
       <c r="BZ7" s="5" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="CA7" s="66" t="s">
         <v>838</v>
@@ -18317,7 +18386,7 @@
         <v>865</v>
       </c>
       <c r="BZ11" s="5" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="CA11" s="66" t="s">
         <v>878</v>
@@ -18869,7 +18938,7 @@
         <v>263</v>
       </c>
       <c r="BZ13" s="5" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="CA13" s="66" t="s">
         <v>1114</v>
@@ -19035,10 +19104,10 @@
         <v>112</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="AO16" s="2" t="s">
         <v>71</v>
@@ -19181,7 +19250,7 @@
         <v>1309</v>
       </c>
       <c r="BZ17" s="2" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="CA17" s="68" t="s">
         <v>137</v>
@@ -19984,72 +20053,72 @@
       </c>
       <c r="D39" s="152"/>
       <c r="Q39" s="151" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="T39" s="151" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="Y39" s="153"/>
       <c r="AI39" s="151" t="s">
+        <v>1425</v>
+      </c>
+      <c r="AL39" s="151" t="s">
         <v>1428</v>
       </c>
-      <c r="AL39" s="151" t="s">
-        <v>1431</v>
-      </c>
       <c r="AM39" s="151" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="AN39" s="151" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="AQ39" s="154" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AV39" s="151" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AZ39" s="151" t="s">
+        <v>1484</v>
+      </c>
+      <c r="BA39" s="151" t="s">
         <v>1485</v>
       </c>
-      <c r="AV39" s="151" t="s">
+      <c r="BB39" s="151" t="s">
         <v>1486</v>
       </c>
-      <c r="AZ39" s="151" t="s">
-        <v>1487</v>
-      </c>
-      <c r="BA39" s="151" t="s">
+      <c r="BE39" s="151" t="s">
         <v>1488</v>
       </c>
-      <c r="BB39" s="151" t="s">
+      <c r="BF39" s="151" t="s">
         <v>1489</v>
       </c>
-      <c r="BE39" s="151" t="s">
+      <c r="BH39" s="151" t="s">
         <v>1491</v>
       </c>
-      <c r="BF39" s="151" t="s">
+      <c r="BI39" s="151" t="s">
         <v>1492</v>
       </c>
-      <c r="BH39" s="151" t="s">
-        <v>1494</v>
-      </c>
-      <c r="BI39" s="151" t="s">
-        <v>1495</v>
-      </c>
       <c r="BL39" s="151" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="BM39" s="184" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="BN39" s="151" t="s">
+        <v>1450</v>
+      </c>
+      <c r="BQ39" s="151" t="s">
         <v>1453</v>
-      </c>
-      <c r="BQ39" s="151" t="s">
-        <v>1456</v>
       </c>
       <c r="BR39" s="155"/>
       <c r="BS39" s="151" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="BU39" s="151" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="BZ39" s="151" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="CA39" s="156"/>
       <c r="CC39" s="157"/>
@@ -20081,10 +20150,10 @@
         <v>1044</v>
       </c>
       <c r="AM40" s="151" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="AN40" s="151" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="AQ40" s="154" t="s">
         <v>1043</v>
@@ -20133,7 +20202,7 @@
         <v>918</v>
       </c>
       <c r="BZ40" s="151" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="CA40" s="156"/>
       <c r="CC40" s="157"/>
@@ -20154,10 +20223,10 @@
       <c r="Y41" s="153"/>
       <c r="AQ41" s="154"/>
       <c r="BB41" s="151" t="s">
+        <v>1487</v>
+      </c>
+      <c r="BF41" s="151" t="s">
         <v>1490</v>
-      </c>
-      <c r="BF41" s="151" t="s">
-        <v>1493</v>
       </c>
       <c r="BM41" s="184"/>
       <c r="BR41" s="155"/>
@@ -22876,7 +22945,7 @@
         <v>1197</v>
       </c>
       <c r="AP68" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="AQ68" s="46"/>
       <c r="AR68" s="6" t="s">
@@ -23056,7 +23125,7 @@
         <v>1199</v>
       </c>
       <c r="AP69" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="AQ69" s="46"/>
       <c r="AR69" s="6" t="s">
@@ -23893,10 +23962,10 @@
         <v>1174</v>
       </c>
       <c r="AM73" s="17" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="AN73" s="17" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="AO73" s="17" t="s">
         <v>1343</v>
@@ -24128,7 +24197,7 @@
         <v>32</v>
       </c>
       <c r="BZ74" s="5" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="CA74" s="71"/>
       <c r="CC74" s="80" t="s">
@@ -24808,10 +24877,10 @@
         <v>533</v>
       </c>
       <c r="AM104" s="4" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AN104" s="4" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AQ104" s="49"/>
       <c r="AS104" s="4" t="s">
@@ -24841,7 +24910,7 @@
         <v>1213</v>
       </c>
       <c r="BZ104" s="4" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="CA104" s="69"/>
       <c r="CC104" s="75"/>
@@ -25076,13 +25145,13 @@
         <v>1312</v>
       </c>
       <c r="AM114" s="6" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="AN114" s="6" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="AO114" s="6" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="AQ114" s="46"/>
       <c r="BM114" s="180"/>
@@ -25113,7 +25182,7 @@
       </c>
       <c r="D115" s="41"/>
       <c r="AO115" s="6" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="AQ115" s="46"/>
       <c r="BM115" s="180"/>
@@ -25717,10 +25786,10 @@
         <v>995</v>
       </c>
       <c r="AM1" s="254" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AN1" s="9" t="s">
         <v>1563</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="2" spans="1:40">
@@ -25839,10 +25908,10 @@
         <v>996</v>
       </c>
       <c r="AM2" s="258" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="97" customFormat="1">
@@ -25961,10 +26030,10 @@
         <v>997</v>
       </c>
       <c r="AM3" s="271" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="AN3" s="97" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -26130,7 +26199,7 @@
     </row>
     <row r="6" spans="1:40" s="291" customFormat="1">
       <c r="A6" s="17" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>1352</v>
@@ -26190,41 +26259,41 @@
         <v>81</v>
       </c>
       <c r="U6" s="291" t="s">
+        <v>1402</v>
+      </c>
+      <c r="V6" s="291" t="s">
+        <v>1409</v>
+      </c>
+      <c r="W6" s="291" t="s">
+        <v>1410</v>
+      </c>
+      <c r="X6" s="291" t="s">
         <v>1405</v>
       </c>
-      <c r="V6" s="291" t="s">
-        <v>1412</v>
-      </c>
-      <c r="W6" s="291" t="s">
-        <v>1413</v>
-      </c>
-      <c r="X6" s="291" t="s">
+      <c r="Y6" s="291" t="s">
         <v>1408</v>
       </c>
-      <c r="Y6" s="291" t="s">
+      <c r="Z6" s="291" t="s">
         <v>1411</v>
-      </c>
-      <c r="Z6" s="291" t="s">
-        <v>1414</v>
       </c>
       <c r="AA6" s="293"/>
       <c r="AF6" s="294" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AG6" s="291" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AH6" s="291" t="s">
+        <v>1414</v>
+      </c>
+      <c r="AI6" s="291" t="s">
         <v>1415</v>
       </c>
-      <c r="AG6" s="291" t="s">
+      <c r="AJ6" s="291" t="s">
         <v>1416</v>
       </c>
-      <c r="AH6" s="291" t="s">
-        <v>1417</v>
-      </c>
-      <c r="AI6" s="291" t="s">
-        <v>1418</v>
-      </c>
-      <c r="AJ6" s="291" t="s">
-        <v>1419</v>
-      </c>
       <c r="AK6" s="295" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="AM6" s="296"/>
     </row>
@@ -26383,7 +26452,7 @@
     </row>
     <row r="8" spans="1:40" s="17" customFormat="1">
       <c r="A8" s="17" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>1352</v>
@@ -26443,57 +26512,57 @@
         <v>1361</v>
       </c>
       <c r="U8" s="291" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="V8" s="291" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="W8" s="291" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="X8" s="291" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="Y8" s="291" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="Z8" s="291" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="AA8" s="293"/>
       <c r="AB8" s="291" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="AC8" s="291"/>
       <c r="AD8" s="291"/>
       <c r="AE8" s="291"/>
       <c r="AF8" s="294" t="s">
+        <v>1419</v>
+      </c>
+      <c r="AG8" s="291" t="s">
+        <v>1420</v>
+      </c>
+      <c r="AH8" s="291" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AI8" s="291" t="s">
         <v>1422</v>
       </c>
-      <c r="AG8" s="291" t="s">
+      <c r="AJ8" s="291" t="s">
         <v>1423</v>
       </c>
-      <c r="AH8" s="291" t="s">
-        <v>1424</v>
-      </c>
-      <c r="AI8" s="291" t="s">
-        <v>1425</v>
-      </c>
-      <c r="AJ8" s="291" t="s">
-        <v>1426</v>
-      </c>
       <c r="AK8" s="295" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="AL8" s="291"/>
       <c r="AM8" s="266"/>
     </row>
     <row r="9" spans="1:40" s="297" customFormat="1">
       <c r="A9" s="297" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="B9" s="297" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="C9" s="298" t="str" cm="1">
         <f t="array" ref="C9">IF(C10&lt;&gt;"",INDEX(AbilityParams!$1:$1,0,MATCH(C10,AbilityParams!$2:$2,0)),"")</f>
@@ -26643,7 +26712,7 @@
     </row>
     <row r="10" spans="1:40" s="306" customFormat="1">
       <c r="A10" s="304" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B10" s="304" t="s">
         <v>1352</v>
@@ -26659,10 +26728,10 @@
     </row>
     <row r="11" spans="1:40" s="297" customFormat="1">
       <c r="A11" s="297" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="B11" s="297" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="C11" s="298" t="str" cm="1">
         <f t="array" ref="C11">IF(C12&lt;&gt;"",INDEX(AbilityParams!$1:$1,0,MATCH(C12,AbilityParams!$2:$2,0)),"")</f>
@@ -26812,7 +26881,7 @@
     </row>
     <row r="12" spans="1:40" s="304" customFormat="1">
       <c r="A12" s="304" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B12" s="304" t="s">
         <v>1352</v>
@@ -26857,10 +26926,10 @@
     </row>
     <row r="13" spans="1:40" s="297" customFormat="1">
       <c r="A13" s="297" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="B13" s="297" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="C13" s="298" t="str" cm="1">
         <f t="array" ref="C13">IF(C14&lt;&gt;"",INDEX(AbilityParams!$1:$1,0,MATCH(C14,AbilityParams!$2:$2,0)),"")</f>
@@ -27010,7 +27079,7 @@
     </row>
     <row r="14" spans="1:40" s="306" customFormat="1">
       <c r="A14" s="304" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B14" s="304" t="s">
         <v>1352</v>
@@ -27024,10 +27093,10 @@
     </row>
     <row r="15" spans="1:40" s="297" customFormat="1">
       <c r="A15" s="297" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="B15" s="297" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="C15" s="298" t="str" cm="1">
         <f t="array" ref="C15">IF(C16&lt;&gt;"",INDEX(AbilityParams!$1:$1,0,MATCH(C16,AbilityParams!$2:$2,0)),"")</f>
@@ -27177,7 +27246,7 @@
     </row>
     <row r="16" spans="1:40" s="304" customFormat="1">
       <c r="A16" s="304" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B16" s="304" t="s">
         <v>1352</v>
@@ -27222,10 +27291,10 @@
     </row>
     <row r="17" spans="1:39" s="297" customFormat="1">
       <c r="A17" s="297" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="B17" s="297" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="C17" s="298" t="str" cm="1">
         <f t="array" ref="C17">IF(C18&lt;&gt;"",INDEX(AbilityParams!$1:$1,0,MATCH(C18,AbilityParams!$2:$2,0)),"")</f>
@@ -27375,7 +27444,7 @@
     </row>
     <row r="18" spans="1:39" s="306" customFormat="1">
       <c r="A18" s="304" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B18" s="304" t="s">
         <v>1352</v>
@@ -27389,10 +27458,10 @@
     </row>
     <row r="19" spans="1:39" s="297" customFormat="1">
       <c r="A19" s="297" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="B19" s="297" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="C19" s="298" t="str" cm="1">
         <f t="array" ref="C19">IF(C20&lt;&gt;"",INDEX(AbilityParams!$1:$1,0,MATCH(C20,AbilityParams!$2:$2,0)),"")</f>
@@ -27542,7 +27611,7 @@
     </row>
     <row r="20" spans="1:39" s="304" customFormat="1">
       <c r="A20" s="304" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B20" s="304" t="s">
         <v>1352</v>
@@ -27587,10 +27656,10 @@
     </row>
     <row r="21" spans="1:39" s="297" customFormat="1">
       <c r="A21" s="297" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="B21" s="297" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="C21" s="298" t="str" cm="1">
         <f t="array" ref="C21">IF(C22&lt;&gt;"",INDEX(AbilityParams!$1:$1,0,MATCH(C22,AbilityParams!$2:$2,0)),"")</f>
@@ -27740,7 +27809,7 @@
     </row>
     <row r="22" spans="1:39" s="306" customFormat="1">
       <c r="A22" s="304" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B22" s="304" t="s">
         <v>1352</v>
@@ -27754,10 +27823,10 @@
     </row>
     <row r="23" spans="1:39" s="297" customFormat="1">
       <c r="A23" s="297" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="B23" s="297" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="C23" s="298" t="str" cm="1">
         <f t="array" ref="C23">IF(C24&lt;&gt;"",INDEX(AbilityParams!$1:$1,0,MATCH(C24,AbilityParams!$2:$2,0)),"")</f>
@@ -27907,7 +27976,7 @@
     </row>
     <row r="24" spans="1:39" s="304" customFormat="1">
       <c r="A24" s="304" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B24" s="304" t="s">
         <v>1352</v>
@@ -28572,7 +28641,7 @@
         <v>123</v>
       </c>
       <c r="C22" s="215" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="D22" s="126" t="s">
         <v>1117</v>
@@ -28652,7 +28721,7 @@
         <v>140</v>
       </c>
       <c r="C28" s="215" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="D28" s="126"/>
     </row>
@@ -28665,7 +28734,7 @@
         <v>141</v>
       </c>
       <c r="C29" s="215" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D29" s="126"/>
     </row>
@@ -28678,7 +28747,7 @@
         <v>1368</v>
       </c>
       <c r="C30" s="215" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="D30" s="126"/>
     </row>
@@ -28691,7 +28760,7 @@
         <v>129</v>
       </c>
       <c r="C31" s="215" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="D31" s="126"/>
     </row>
@@ -28743,7 +28812,7 @@
         <v>138</v>
       </c>
       <c r="C35" s="215" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="D35" s="126"/>
     </row>
@@ -28753,10 +28822,10 @@
         <v>10z0</v>
       </c>
       <c r="B36" s="269" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="C36" s="215" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="D36" s="126"/>
     </row>
@@ -28766,10 +28835,10 @@
         <v>10A0</v>
       </c>
       <c r="B37" s="269" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="C37" s="215" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="D37" s="126"/>
     </row>
@@ -28779,10 +28848,10 @@
         <v>10B0</v>
       </c>
       <c r="B38" s="269" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="C38" s="215" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="D38" s="126"/>
     </row>
@@ -28792,10 +28861,10 @@
         <v>10C0</v>
       </c>
       <c r="B39" s="269" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="C39" s="215" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="D39" s="126"/>
     </row>
@@ -29061,7 +29130,7 @@
         <v>1049</v>
       </c>
       <c r="C59" s="216" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="D59" s="126"/>
     </row>
@@ -29113,7 +29182,7 @@
         <v>188</v>
       </c>
       <c r="C63" s="216" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="D63" s="126"/>
     </row>
@@ -29126,7 +29195,7 @@
         <v>189</v>
       </c>
       <c r="C64" s="216" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="D64" s="126"/>
     </row>
@@ -29139,7 +29208,7 @@
         <v>193</v>
       </c>
       <c r="C65" s="216" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="D65" s="126"/>
     </row>
@@ -29258,7 +29327,7 @@
         <v>3080</v>
       </c>
       <c r="B75" s="269" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="C75" s="220" t="s">
         <v>1135</v>
@@ -29323,8 +29392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7136B680-2DFA-4A63-89D9-5F76C51E56A3}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -29658,7 +29727,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="213" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="D11" s="234" t="str" cm="1">
         <f t="array" ref="D11">INDEX(AbilityParams!$1:$1,0,MATCH(E11,AbilityParams!$2:$2,0))</f>
@@ -29676,7 +29745,7 @@
         <v>3080</v>
       </c>
       <c r="H11" s="229" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -29755,10 +29824,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8243684B-26F0-48AD-9220-25F8EBBE7936}">
-  <dimension ref="A1:AD36"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -29797,52 +29866,52 @@
   <sheetData>
     <row r="1" spans="1:30" s="231" customFormat="1">
       <c r="A1" s="313" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="B1" s="313"/>
       <c r="C1" s="313"/>
       <c r="D1" s="313" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="E1" s="313"/>
       <c r="F1" s="313"/>
       <c r="G1" s="313" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="H1" s="313"/>
       <c r="I1" s="313"/>
       <c r="J1" s="313" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="K1" s="313"/>
       <c r="L1" s="313"/>
       <c r="M1" s="313" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="N1" s="313"/>
       <c r="O1" s="313"/>
       <c r="P1" s="313" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="Q1" s="313"/>
       <c r="R1" s="313"/>
       <c r="S1" s="313" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="T1" s="313"/>
       <c r="U1" s="313"/>
       <c r="V1" s="313" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="W1" s="313"/>
       <c r="X1" s="313"/>
       <c r="Y1" s="313" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="Z1" s="313"/>
       <c r="AA1" s="313"/>
       <c r="AB1" s="313" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="AC1" s="313"/>
       <c r="AD1" s="313"/>
@@ -29859,42 +29928,42 @@
       <c r="E2" s="314"/>
       <c r="F2" s="314"/>
       <c r="G2" s="314" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="H2" s="314"/>
       <c r="I2" s="314"/>
       <c r="J2" s="314" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="K2" s="314"/>
       <c r="L2" s="314"/>
       <c r="M2" s="314" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="N2" s="314"/>
       <c r="O2" s="314"/>
       <c r="P2" s="314" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="Q2" s="314"/>
       <c r="R2" s="314"/>
       <c r="S2" s="314" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="T2" s="314"/>
       <c r="U2" s="314"/>
       <c r="V2" s="314" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="W2" s="314"/>
       <c r="X2" s="314"/>
       <c r="Y2" s="314" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="Z2" s="314"/>
       <c r="AA2" s="314"/>
       <c r="AB2" s="314" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="AC2" s="314"/>
       <c r="AD2" s="314"/>
@@ -29908,7 +29977,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>1406</v>
       </c>
       <c r="D3" s="238" cm="1">
         <f t="array" ref="D3">INDEX(AbilityParams!$1:$1,0,MATCH(F3,AbilityParams!$2:$2,0))</f>
@@ -29928,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>1385</v>
+        <v>197</v>
       </c>
       <c r="J3" s="238" t="str" cm="1">
         <f t="array" ref="J3">INDEX(AbilityParams!$1:$1,0,MATCH(L3,AbilityParams!$2:$2,0))</f>
@@ -29938,7 +30007,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>1393</v>
+        <v>221</v>
       </c>
       <c r="M3" s="238" t="str" cm="1">
         <f t="array" ref="M3">INDEX(AbilityParams!$1:$1,0,MATCH(O3,AbilityParams!$2:$2,0))</f>
@@ -29948,7 +30017,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>1395</v>
+        <v>228</v>
       </c>
       <c r="P3" s="238" cm="1">
         <f t="array" ref="P3">INDEX(AbilityParams!$1:$1,0,MATCH(R3,AbilityParams!$2:$2,0))</f>
@@ -30007,10 +30076,10 @@
         <v>1010</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>1595</v>
       </c>
       <c r="D4" s="238" cm="1">
         <f t="array" ref="D4">INDEX(AbilityParams!$1:$1,0,MATCH(F4,AbilityParams!$2:$2,0))</f>
@@ -30030,7 +30099,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="J4" s="238" t="str" cm="1">
         <f t="array" ref="J4">INDEX(AbilityParams!$1:$1,0,MATCH(L4,AbilityParams!$2:$2,0))</f>
@@ -30040,7 +30109,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="M4" s="238" t="str" cm="1">
         <f t="array" ref="M4">INDEX(AbilityParams!$1:$1,0,MATCH(O4,AbilityParams!$2:$2,0))</f>
@@ -30050,7 +30119,7 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="P4" s="238" t="str" cm="1">
         <f t="array" ref="P4">INDEX(AbilityParams!$1:$1,0,MATCH(R4,AbilityParams!$2:$2,0))</f>
@@ -30109,10 +30178,10 @@
         <v>1020</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>1596</v>
       </c>
       <c r="D5" s="238" cm="1">
         <f t="array" ref="D5">INDEX(AbilityParams!$1:$1,0,MATCH(F5,AbilityParams!$2:$2,0))</f>
@@ -30132,7 +30201,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -30141,10 +30210,10 @@
         <v>1030</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>1597</v>
       </c>
       <c r="D6" s="238" cm="1">
         <f t="array" ref="D6">INDEX(AbilityParams!$1:$1,0,MATCH(F6,AbilityParams!$2:$2,0))</f>
@@ -30164,7 +30233,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -30173,10 +30242,10 @@
         <v>1040</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>1598</v>
       </c>
       <c r="D7" s="238" cm="1">
         <f t="array" ref="D7">INDEX(AbilityParams!$1:$1,0,MATCH(F7,AbilityParams!$2:$2,0))</f>
@@ -30196,7 +30265,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -30205,10 +30274,10 @@
         <v>1050</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>1599</v>
       </c>
       <c r="D8" s="238" cm="1">
         <f t="array" ref="D8">INDEX(AbilityParams!$1:$1,0,MATCH(F8,AbilityParams!$2:$2,0))</f>
@@ -30228,7 +30297,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -30240,7 +30309,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>1600</v>
       </c>
       <c r="D9" s="238" cm="1">
         <f t="array" ref="D9">INDEX(AbilityParams!$1:$1,0,MATCH(F9,AbilityParams!$2:$2,0))</f>
@@ -30260,7 +30329,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -30272,7 +30341,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>1601</v>
       </c>
       <c r="D10" s="238" cm="1">
         <f t="array" ref="D10">INDEX(AbilityParams!$1:$1,0,MATCH(F10,AbilityParams!$2:$2,0))</f>
@@ -30292,7 +30361,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -30304,7 +30373,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>1602</v>
       </c>
       <c r="D11" s="238" t="str" cm="1">
         <f t="array" ref="D11">INDEX(AbilityParams!$1:$1,0,MATCH(F11,AbilityParams!$2:$2,0))</f>
@@ -30324,7 +30393,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -30333,10 +30402,10 @@
         <v>1090</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1364</v>
+        <v>1404</v>
       </c>
       <c r="D12" s="238" t="str" cm="1">
         <f t="array" ref="D12">INDEX(AbilityParams!$1:$1,0,MATCH(F12,AbilityParams!$2:$2,0))</f>
@@ -30355,10 +30424,10 @@
         <v>10a0</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1363</v>
+        <v>1402</v>
       </c>
       <c r="D13" s="238" t="str" cm="1">
         <f t="array" ref="D13">INDEX(AbilityParams!$1:$1,0,MATCH(F13,AbilityParams!$2:$2,0))</f>
@@ -30380,7 +30449,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>1408</v>
       </c>
       <c r="D14" s="238" t="str" cm="1">
         <f t="array" ref="D14">INDEX(AbilityParams!$1:$1,0,MATCH(F14,AbilityParams!$2:$2,0))</f>
@@ -30402,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>1603</v>
       </c>
       <c r="D15" s="238" t="str" cm="1">
         <f t="array" ref="D15">INDEX(AbilityParams!$1:$1,0,MATCH(F15,AbilityParams!$2:$2,0))</f>
@@ -30424,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>1604</v>
       </c>
       <c r="D16" s="238" t="str" cm="1">
         <f t="array" ref="D16">INDEX(AbilityParams!$1:$1,0,MATCH(F16,AbilityParams!$2:$2,0))</f>
@@ -30443,10 +30512,10 @@
         <v>10e0</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>1605</v>
       </c>
       <c r="D17" s="238" t="str" cm="1">
         <f t="array" ref="D17">INDEX(AbilityParams!$1:$1,0,MATCH(F17,AbilityParams!$2:$2,0))</f>
@@ -30468,7 +30537,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>102</v>
+        <v>1606</v>
       </c>
       <c r="D18" s="238" t="str" cm="1">
         <f t="array" ref="D18">INDEX(AbilityParams!$1:$1,0,MATCH(F18,AbilityParams!$2:$2,0))</f>
@@ -30490,7 +30559,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>106</v>
+        <v>1607</v>
       </c>
       <c r="D19" s="238" t="str" cm="1">
         <f t="array" ref="D19">INDEX(AbilityParams!$1:$1,0,MATCH(F19,AbilityParams!$2:$2,0))</f>
@@ -30512,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>920</v>
+        <v>1608</v>
       </c>
       <c r="D20" s="238" t="str" cm="1">
         <f t="array" ref="D20">INDEX(AbilityParams!$1:$1,0,MATCH(F20,AbilityParams!$2:$2,0))</f>
@@ -30534,7 +30603,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>114</v>
+        <v>1609</v>
       </c>
       <c r="D21" s="238" t="str" cm="1">
         <f t="array" ref="D21">INDEX(AbilityParams!$1:$1,0,MATCH(F21,AbilityParams!$2:$2,0))</f>
@@ -30556,7 +30625,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>119</v>
+        <v>1610</v>
       </c>
       <c r="D22" s="238" t="str" cm="1">
         <f t="array" ref="D22">INDEX(AbilityParams!$1:$1,0,MATCH(F22,AbilityParams!$2:$2,0))</f>
@@ -30575,10 +30644,10 @@
         <v>10k0</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>121</v>
+        <v>1409</v>
       </c>
       <c r="D23" s="238" t="str" cm="1">
         <f t="array" ref="D23">INDEX(AbilityParams!$1:$1,0,MATCH(F23,AbilityParams!$2:$2,0))</f>
@@ -30600,7 +30669,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>123</v>
+        <v>1611</v>
       </c>
       <c r="D24" s="238" t="str" cm="1">
         <f t="array" ref="D24">INDEX(AbilityParams!$1:$1,0,MATCH(F24,AbilityParams!$2:$2,0))</f>
@@ -30622,7 +30691,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>900</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -30634,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>127</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -30643,10 +30712,10 @@
         <v>10o0</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1341</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -30655,10 +30724,10 @@
         <v>10p0</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>167</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -30667,10 +30736,10 @@
         <v>10q0</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1372</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -30679,10 +30748,10 @@
         <v>10r0</v>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>140</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -30694,7 +30763,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>141</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -30706,59 +30775,127 @@
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1368</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="238" t="str" cm="1">
         <f t="array" ref="A33">INDEX(AbilityParams!$1:$1,0,MATCH(C33,AbilityParams!$2:$2,0))</f>
-        <v>10z0</v>
+        <v>10u0</v>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1526</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="238" t="str" cm="1">
         <f t="array" ref="A34">INDEX(AbilityParams!$1:$1,0,MATCH(C34,AbilityParams!$2:$2,0))</f>
-        <v>10A0</v>
+        <v>10v0</v>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1531</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="238" t="str" cm="1">
         <f t="array" ref="A35">INDEX(AbilityParams!$1:$1,0,MATCH(C35,AbilityParams!$2:$2,0))</f>
-        <v>10B0</v>
+        <v>10w0</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1572</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="238" t="str" cm="1">
         <f t="array" ref="A36">INDEX(AbilityParams!$1:$1,0,MATCH(C36,AbilityParams!$2:$2,0))</f>
-        <v>10C0</v>
+        <v>10x0</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1582</v>
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="238" t="str" cm="1">
+        <f t="array" ref="A37">INDEX(AbilityParams!$1:$1,0,MATCH(C37,AbilityParams!$2:$2,0))</f>
+        <v>10y0</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="238" t="str" cm="1">
+        <f t="array" ref="A38">INDEX(AbilityParams!$1:$1,0,MATCH(C38,AbilityParams!$2:$2,0))</f>
+        <v>10z0</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="238" t="str" cm="1">
+        <f t="array" ref="A39">INDEX(AbilityParams!$1:$1,0,MATCH(C39,AbilityParams!$2:$2,0))</f>
+        <v>10A0</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="238" t="str" cm="1">
+        <f t="array" ref="A40">INDEX(AbilityParams!$1:$1,0,MATCH(C40,AbilityParams!$2:$2,0))</f>
+        <v>10B0</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="238" t="str" cm="1">
+        <f t="array" ref="A41">INDEX(AbilityParams!$1:$1,0,MATCH(C41,AbilityParams!$2:$2,0))</f>
+        <v>10C0</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1620</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="A2:C2"/>
@@ -30771,17 +30908,9 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="Y2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576 E1:E1048576 H1:H1048576 K1:K1048576 N1:N1048576">
+  <conditionalFormatting sqref="E1:E1048576 H1:H1048576 K1:K1048576 N1:N1048576 B1:B1048576">
     <cfRule type="expression" dxfId="16" priority="11">
       <formula>AND(B1&lt;&gt;TRUE,B1&lt;&gt;"")</formula>
     </cfRule>
@@ -30847,5 +30976,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/json/w3x/SkillArchive/Master.xlsx
+++ b/src/json/w3x/SkillArchive/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SandfoxArchive\src\json\w3x\SkillArchive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D72DC9-47DE-4AC9-AB70-486CFA37A3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BCD728-523A-4EEA-94C9-E0E5BE42ED87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="3" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5196" uniqueCount="1625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5196" uniqueCount="1626">
   <si>
     <t>NULL</t>
   </si>
@@ -5913,6 +5913,10 @@
   </si>
   <si>
     <t>tooltiprodongicon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_RODONG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11070,7 +11074,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -16055,11 +16059,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E536BB9-2F6B-46F9-B5CA-2EDF567D7AD3}">
   <dimension ref="A1:CN134"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="P57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:AP2"/>
+      <selection pane="bottomRight" activeCell="Y73" sqref="Y73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -23790,7 +23794,7 @@
         <v>1173</v>
       </c>
       <c r="BG72" s="17" t="s">
-        <v>1173</v>
+        <v>1625</v>
       </c>
       <c r="BH72" s="17" t="s">
         <v>1171</v>
@@ -23964,7 +23968,7 @@
         <v>1174</v>
       </c>
       <c r="Y73" s="17" t="s">
-        <v>1194</v>
+        <v>1625</v>
       </c>
       <c r="Z73" s="17" t="s">
         <v>1174</v>
@@ -30932,6 +30936,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="A2:C2"/>
@@ -30944,14 +30956,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="Y2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576 H1:H1048576 K1:K1048576 N1:N1048576 B1:B1048576">

--- a/src/json/w3x/SkillArchive/Master.xlsx
+++ b/src/json/w3x/SkillArchive/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SandfoxArchive\src\json\w3x\SkillArchive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BCD728-523A-4EEA-94C9-E0E5BE42ED87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8B7931-A792-4F1C-B65A-DE05851DF7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="3" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5196" uniqueCount="1626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5228" uniqueCount="1641">
   <si>
     <t>NULL</t>
   </si>
@@ -5897,10 +5897,6 @@
     <t>곡괭이</t>
   </si>
   <si>
-    <t>19//E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CONFIG_STAT_RODONG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5917,6 +5913,70 @@
   </si>
   <si>
     <t>STAT_RODONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_STAT_LOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tooltiploveicon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_LOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_EVENT_DAMAGE_LAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_EVENT_HEAL_LAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_EVENT_SHIELD_LAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_EVENT_HEAL_MODIFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_EVENT_HEAL_MODIFY_STAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_EVENT_SHIELD_MODIFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_EVENT_SHIELD_MODIFY_STAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8220,10 +8280,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82B59F9-BB29-4C65-AAB0-AE2037E57A09}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C261"/>
+  <dimension ref="A1:C269"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="J199" sqref="J199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9004,7 +9064,7 @@
         <v>254</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C72" s="27" t="s">
         <v>1122</v>
@@ -9015,41 +9075,41 @@
         <v>254</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>656</v>
+        <v>1625</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>1620</v>
+        <v>920</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="27" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="C74" s="27"/>
+        <v>656</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>1545</v>
+      </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="27" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="C75" s="27">
-        <v>100</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C75" s="27"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C76" s="27">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -9057,10 +9117,10 @@
         <v>254</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C77" s="27">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -9068,10 +9128,10 @@
         <v>254</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C78" s="27">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -9079,10 +9139,10 @@
         <v>254</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C79" s="27">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -9090,10 +9150,10 @@
         <v>254</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C80" s="27">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -9101,10 +9161,10 @@
         <v>254</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C81" s="27">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -9112,10 +9172,10 @@
         <v>254</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C82" s="27">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -9123,10 +9183,10 @@
         <v>254</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C83" s="27">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -9134,10 +9194,10 @@
         <v>254</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C84" s="27">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -9145,10 +9205,10 @@
         <v>254</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C85" s="27">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -9156,10 +9216,10 @@
         <v>254</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C86" s="27">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -9167,10 +9227,10 @@
         <v>254</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C87" s="27">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -9178,41 +9238,41 @@
         <v>254</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>1315</v>
+        <v>590</v>
+      </c>
+      <c r="C88" s="27">
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="27" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C89" s="27"/>
+        <v>1312</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>1315</v>
+      </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="27" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>657</v>
-      </c>
-      <c r="C90" s="27">
-        <v>0</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C90" s="27"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C91" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -9220,10 +9280,10 @@
         <v>254</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C92" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -9231,10 +9291,10 @@
         <v>254</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C93" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -9242,10 +9302,10 @@
         <v>254</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C94" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -9253,10 +9313,10 @@
         <v>254</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C95" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -9264,41 +9324,41 @@
         <v>254</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>663</v>
-      </c>
-      <c r="C96" s="27" t="s">
-        <v>425</v>
+        <v>662</v>
+      </c>
+      <c r="C96" s="27">
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="27" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="C97" s="27"/>
+        <v>663</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="27" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>591</v>
-      </c>
-      <c r="C98" s="27">
-        <v>0</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C98" s="27"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C99" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -9306,10 +9366,10 @@
         <v>254</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C100" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -9317,10 +9377,10 @@
         <v>254</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C101" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -9328,10 +9388,10 @@
         <v>254</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C102" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -9339,10 +9399,10 @@
         <v>254</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C103" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -9350,10 +9410,10 @@
         <v>254</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C104" s="27">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -9361,10 +9421,10 @@
         <v>254</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C105" s="27">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -9372,10 +9432,10 @@
         <v>254</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C106" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -9383,10 +9443,10 @@
         <v>254</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C107" s="27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -9394,10 +9454,10 @@
         <v>254</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C108" s="27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -9405,10 +9465,10 @@
         <v>254</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C109" s="27">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -9416,10 +9476,10 @@
         <v>254</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C110" s="27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -9427,10 +9487,10 @@
         <v>254</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C111" s="27">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -9438,10 +9498,10 @@
         <v>254</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C112" s="27">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -9449,10 +9509,10 @@
         <v>254</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C113" s="27">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -9460,10 +9520,10 @@
         <v>254</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C114" s="27">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -9471,10 +9531,10 @@
         <v>254</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="C115" s="27" t="s">
-        <v>428</v>
+        <v>607</v>
+      </c>
+      <c r="C115" s="27">
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -9482,10 +9542,10 @@
         <v>254</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>1293</v>
+        <v>608</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>1122</v>
+        <v>428</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -9493,10 +9553,10 @@
         <v>254</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>1544</v>
+        <v>1293</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>920</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -9504,10 +9564,10 @@
         <v>254</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>664</v>
+        <v>1544</v>
       </c>
       <c r="C118" s="27" t="s">
-        <v>1545</v>
+        <v>920</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -9515,41 +9575,41 @@
         <v>254</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>665</v>
-      </c>
-      <c r="C119" s="27">
-        <v>100</v>
+        <v>664</v>
+      </c>
+      <c r="C119" s="27" t="s">
+        <v>1545</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="27" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>725</v>
-      </c>
-      <c r="C120" s="27"/>
+        <v>665</v>
+      </c>
+      <c r="C120" s="27">
+        <v>100</v>
+      </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="27" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>726</v>
-      </c>
-      <c r="C121" s="27" t="s">
-        <v>263</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="C121" s="27"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C122" s="27" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -9557,10 +9617,10 @@
         <v>254</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C123" s="27" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -9568,10 +9628,10 @@
         <v>254</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C124" s="27" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -9579,10 +9639,10 @@
         <v>254</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C125" s="27" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -9590,10 +9650,10 @@
         <v>254</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C126" s="27" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -9601,10 +9661,10 @@
         <v>254</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C127" s="27" t="s">
-        <v>737</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -9612,10 +9672,10 @@
         <v>254</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C128" s="27" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -9623,10 +9683,10 @@
         <v>254</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>89</v>
+        <v>738</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -9634,10 +9694,10 @@
         <v>254</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C130" s="27" t="s">
-        <v>739</v>
+        <v>89</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -9645,10 +9705,10 @@
         <v>254</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C131" s="27" t="s">
-        <v>199</v>
+        <v>739</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -9656,10 +9716,10 @@
         <v>254</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>908</v>
+        <v>736</v>
       </c>
       <c r="C132" s="27" t="s">
-        <v>909</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -9667,10 +9727,10 @@
         <v>254</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>1120</v>
+        <v>908</v>
       </c>
       <c r="C133" s="27" t="s">
-        <v>827</v>
+        <v>909</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -9678,10 +9738,10 @@
         <v>254</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>910</v>
+        <v>1120</v>
       </c>
       <c r="C134" s="27" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -9689,10 +9749,10 @@
         <v>254</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>1121</v>
+        <v>910</v>
       </c>
       <c r="C135" s="27" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -9700,10 +9760,10 @@
         <v>254</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="C136" s="27" t="s">
-        <v>203</v>
+        <v>838</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -9711,10 +9771,10 @@
         <v>254</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C137" s="27" t="s">
-        <v>1108</v>
+        <v>203</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -9722,10 +9782,10 @@
         <v>254</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>911</v>
+        <v>1126</v>
       </c>
       <c r="C138" s="27" t="s">
-        <v>428</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -9733,10 +9793,10 @@
         <v>254</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C139" s="27" t="s">
-        <v>1122</v>
+        <v>428</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -9744,41 +9804,41 @@
         <v>254</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>1235</v>
+        <v>912</v>
       </c>
       <c r="C140" s="27" t="s">
-        <v>1236</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="27" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="C141" s="27"/>
+        <v>1235</v>
+      </c>
+      <c r="C141" s="27" t="s">
+        <v>1236</v>
+      </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="27" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>666</v>
-      </c>
-      <c r="C142" s="27">
-        <v>0</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C142" s="27"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C143" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -9786,10 +9846,10 @@
         <v>254</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C144" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -9797,10 +9857,10 @@
         <v>254</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C145" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -9808,10 +9868,10 @@
         <v>254</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C146" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -9819,10 +9879,10 @@
         <v>254</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C147" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -9830,10 +9890,10 @@
         <v>254</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C148" s="27">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -9841,10 +9901,10 @@
         <v>254</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C149" s="27">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -9852,10 +9912,10 @@
         <v>254</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C150" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -9863,10 +9923,10 @@
         <v>254</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C151" s="27" t="s">
-        <v>739</v>
+        <v>674</v>
+      </c>
+      <c r="C151" s="27">
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -9874,10 +9934,10 @@
         <v>254</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>1540</v>
+        <v>1518</v>
       </c>
       <c r="C152" s="27" t="s">
-        <v>199</v>
+        <v>739</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -9885,10 +9945,10 @@
         <v>254</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>1520</v>
+        <v>1540</v>
       </c>
       <c r="C153" s="27" t="s">
-        <v>909</v>
+        <v>199</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -9896,10 +9956,10 @@
         <v>254</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>1541</v>
+        <v>1520</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>827</v>
+        <v>909</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -9907,10 +9967,10 @@
         <v>254</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>1565</v>
+        <v>1541</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -9918,10 +9978,10 @@
         <v>254</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>675</v>
+        <v>1565</v>
       </c>
       <c r="C156" s="27" t="s">
-        <v>1566</v>
+        <v>836</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -9929,41 +9989,41 @@
         <v>254</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>1537</v>
+        <v>675</v>
       </c>
       <c r="C157" s="27" t="s">
-        <v>1236</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="27" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="C158" s="27"/>
+        <v>1537</v>
+      </c>
+      <c r="C158" s="27" t="s">
+        <v>1236</v>
+      </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="27" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>676</v>
-      </c>
-      <c r="C159" s="27">
-        <v>10</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="C159" s="27"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>677</v>
-      </c>
-      <c r="C160" s="27" t="s">
-        <v>409</v>
+        <v>676</v>
+      </c>
+      <c r="C160" s="27">
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -9971,10 +10031,10 @@
         <v>254</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -9982,10 +10042,10 @@
         <v>254</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -9993,10 +10053,10 @@
         <v>254</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -10004,10 +10064,10 @@
         <v>254</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C164" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -10015,10 +10075,10 @@
         <v>254</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C165" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -10026,21 +10086,21 @@
         <v>254</v>
       </c>
       <c r="B166" s="25" t="s">
-        <v>1495</v>
+        <v>682</v>
       </c>
       <c r="C166" s="27" t="s">
-        <v>1496</v>
+        <v>414</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>1284</v>
+        <v>1495</v>
       </c>
       <c r="C167" s="27" t="s">
-        <v>415</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -10048,10 +10108,10 @@
         <v>255</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C168" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -10059,10 +10119,10 @@
         <v>255</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C169" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -10070,61 +10130,61 @@
         <v>255</v>
       </c>
       <c r="B170" s="25" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C170" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="27" t="s">
-        <v>369</v>
+        <v>255</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="C171" s="27"/>
+        <v>1287</v>
+      </c>
+      <c r="C171" s="27" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="27" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B172" s="25" t="s">
-        <v>683</v>
-      </c>
-      <c r="C172" s="27" t="s">
-        <v>426</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C172" s="27"/>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="27" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="C173" s="27"/>
+        <v>683</v>
+      </c>
+      <c r="C173" s="27" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="27" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>684</v>
-      </c>
-      <c r="C174" s="27">
-        <v>32</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C174" s="27"/>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C175" s="27">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -10132,10 +10192,10 @@
         <v>254</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C176" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -10143,10 +10203,10 @@
         <v>254</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C177" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -10154,10 +10214,10 @@
         <v>254</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C178" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -10165,10 +10225,10 @@
         <v>254</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C179" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -10176,10 +10236,10 @@
         <v>254</v>
       </c>
       <c r="B180" s="25" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C180" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -10187,10 +10247,10 @@
         <v>254</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C181" s="27">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -10198,10 +10258,10 @@
         <v>254</v>
       </c>
       <c r="B182" s="25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C182" s="27">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -10209,10 +10269,10 @@
         <v>254</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C183" s="27">
-        <v>240</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -10220,41 +10280,41 @@
         <v>254</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C184" s="27">
-        <v>96</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="27" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="C185" s="27"/>
+        <v>694</v>
+      </c>
+      <c r="C185" s="27">
+        <v>96</v>
+      </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="27" t="s">
-        <v>260</v>
+        <v>369</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>695</v>
-      </c>
-      <c r="C186" s="27">
-        <v>1</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C186" s="27"/>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="27" t="s">
         <v>260</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C187" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -10262,10 +10322,10 @@
         <v>260</v>
       </c>
       <c r="B188" s="25" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C188" s="27">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -10273,10 +10333,10 @@
         <v>260</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>698</v>
-      </c>
-      <c r="C189" s="27">
-        <v>7</v>
+        <v>1629</v>
+      </c>
+      <c r="C189" s="27" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -10284,10 +10344,10 @@
         <v>260</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="C190" s="27">
-        <v>8</v>
+        <v>697</v>
+      </c>
+      <c r="C190" s="27" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -10295,10 +10355,10 @@
         <v>260</v>
       </c>
       <c r="B191" s="25" t="s">
-        <v>700</v>
-      </c>
-      <c r="C191" s="27">
-        <v>9</v>
+        <v>698</v>
+      </c>
+      <c r="C191" s="27" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -10306,10 +10366,10 @@
         <v>260</v>
       </c>
       <c r="B192" s="25" t="s">
-        <v>701</v>
-      </c>
-      <c r="C192" s="27">
-        <v>10</v>
+        <v>1635</v>
+      </c>
+      <c r="C192" s="27" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -10317,10 +10377,10 @@
         <v>260</v>
       </c>
       <c r="B193" s="25" t="s">
-        <v>702</v>
-      </c>
-      <c r="C193" s="27">
-        <v>11</v>
+        <v>1634</v>
+      </c>
+      <c r="C193" s="27" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -10328,10 +10388,10 @@
         <v>260</v>
       </c>
       <c r="B194" s="25" t="s">
-        <v>703</v>
-      </c>
-      <c r="C194" s="27">
-        <v>12</v>
+        <v>1630</v>
+      </c>
+      <c r="C194" s="27" t="s">
+        <v>1636</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -10339,10 +10399,10 @@
         <v>260</v>
       </c>
       <c r="B195" s="25" t="s">
-        <v>704</v>
-      </c>
-      <c r="C195" s="27">
-        <v>13</v>
+        <v>1638</v>
+      </c>
+      <c r="C195" s="27" t="s">
+        <v>1639</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -10350,10 +10410,10 @@
         <v>260</v>
       </c>
       <c r="B196" s="25" t="s">
-        <v>705</v>
-      </c>
-      <c r="C196" s="27">
-        <v>14</v>
+        <v>1637</v>
+      </c>
+      <c r="C196" s="27" t="s">
+        <v>1633</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -10361,10 +10421,10 @@
         <v>260</v>
       </c>
       <c r="B197" s="25" t="s">
-        <v>706</v>
-      </c>
-      <c r="C197" s="27">
-        <v>15</v>
+        <v>1632</v>
+      </c>
+      <c r="C197" s="27" t="s">
+        <v>1640</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -10372,10 +10432,10 @@
         <v>260</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>707</v>
-      </c>
-      <c r="C198" s="27">
-        <v>16</v>
+        <v>699</v>
+      </c>
+      <c r="C198" s="27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -10383,10 +10443,10 @@
         <v>260</v>
       </c>
       <c r="B199" s="25" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="C199" s="27">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -10394,10 +10454,10 @@
         <v>260</v>
       </c>
       <c r="B200" s="25" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="C200" s="27">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -10405,10 +10465,10 @@
         <v>260</v>
       </c>
       <c r="B201" s="25" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C201" s="27">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -10416,10 +10476,10 @@
         <v>260</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="C202" s="27">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -10427,10 +10487,10 @@
         <v>260</v>
       </c>
       <c r="B203" s="25" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="C203" s="27">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -10438,10 +10498,10 @@
         <v>260</v>
       </c>
       <c r="B204" s="25" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C204" s="27">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -10449,10 +10509,10 @@
         <v>260</v>
       </c>
       <c r="B205" s="25" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="C205" s="27">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -10460,10 +10520,10 @@
         <v>260</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C206" s="27">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -10471,10 +10531,10 @@
         <v>260</v>
       </c>
       <c r="B207" s="25" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="C207" s="27">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -10482,10 +10542,10 @@
         <v>260</v>
       </c>
       <c r="B208" s="25" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="C208" s="27">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -10493,10 +10553,10 @@
         <v>260</v>
       </c>
       <c r="B209" s="25" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C209" s="27">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -10504,10 +10564,10 @@
         <v>260</v>
       </c>
       <c r="B210" s="25" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="C210" s="27">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -10515,10 +10575,10 @@
         <v>260</v>
       </c>
       <c r="B211" s="25" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="C211" s="27">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -10526,10 +10586,10 @@
         <v>260</v>
       </c>
       <c r="B212" s="25" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C212" s="27">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -10537,10 +10597,10 @@
         <v>260</v>
       </c>
       <c r="B213" s="25" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="C213" s="27">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -10548,10 +10608,10 @@
         <v>260</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="C214" s="27">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -10559,106 +10619,106 @@
         <v>260</v>
       </c>
       <c r="B215" s="25" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="C215" s="27">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B216" s="25" t="s">
+        <v>717</v>
+      </c>
+      <c r="C216" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B217" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="C217" s="27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B218" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="C218" s="27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B219" s="25" t="s">
+        <v>720</v>
+      </c>
+      <c r="C219" s="27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B220" s="25" t="s">
+        <v>721</v>
+      </c>
+      <c r="C220" s="27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B221" s="25" t="s">
+        <v>722</v>
+      </c>
+      <c r="C221" s="27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B222" s="25" t="s">
+        <v>723</v>
+      </c>
+      <c r="C222" s="27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B223" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="C223" s="27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="B216" s="26" t="s">
+      <c r="B224" s="26" t="s">
         <v>784</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="B217" s="25" t="s">
-        <v>785</v>
-      </c>
-      <c r="C217" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="B218" s="25" t="s">
-        <v>786</v>
-      </c>
-      <c r="C218" s="26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="B219" s="25" t="s">
-        <v>787</v>
-      </c>
-      <c r="C219" s="26" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="B220" s="25" t="s">
-        <v>788</v>
-      </c>
-      <c r="C220" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="B221" s="25" t="s">
-        <v>789</v>
-      </c>
-      <c r="C221" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="B222" s="25" t="s">
-        <v>790</v>
-      </c>
-      <c r="C222" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="B223" s="25" t="s">
-        <v>791</v>
-      </c>
-      <c r="C223" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="B224" s="25" t="s">
-        <v>792</v>
-      </c>
-      <c r="C224" s="26" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -10666,10 +10726,10 @@
         <v>254</v>
       </c>
       <c r="B225" s="25" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="C225" s="26" t="s">
-        <v>803</v>
+        <v>263</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -10677,10 +10737,10 @@
         <v>254</v>
       </c>
       <c r="B226" s="25" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="C226" s="26" t="s">
-        <v>804</v>
+        <v>262</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -10688,10 +10748,10 @@
         <v>254</v>
       </c>
       <c r="B227" s="25" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="C227" s="26" t="s">
-        <v>805</v>
+        <v>194</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -10699,10 +10759,10 @@
         <v>254</v>
       </c>
       <c r="B228" s="25" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="C228" s="26" t="s">
-        <v>806</v>
+        <v>160</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -10710,10 +10770,10 @@
         <v>254</v>
       </c>
       <c r="B229" s="25" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="C229" s="26" t="s">
-        <v>807</v>
+        <v>41</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -10721,10 +10781,10 @@
         <v>254</v>
       </c>
       <c r="B230" s="25" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="C230" s="26" t="s">
-        <v>808</v>
+        <v>72</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -10732,10 +10792,10 @@
         <v>254</v>
       </c>
       <c r="B231" s="25" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="C231" s="26" t="s">
-        <v>809</v>
+        <v>263</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -10743,10 +10803,10 @@
         <v>254</v>
       </c>
       <c r="B232" s="25" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="C232" s="26" t="s">
-        <v>810</v>
+        <v>262</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -10754,10 +10814,10 @@
         <v>254</v>
       </c>
       <c r="B233" s="25" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C233" s="26" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -10765,98 +10825,98 @@
         <v>254</v>
       </c>
       <c r="B234" s="25" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="C234" s="26" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B235" s="26" t="s">
-        <v>826</v>
+      <c r="B235" s="25" t="s">
+        <v>795</v>
       </c>
       <c r="C235" s="26" t="s">
-        <v>827</v>
+        <v>805</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>835</v>
+      <c r="B236" s="25" t="s">
+        <v>796</v>
       </c>
       <c r="C236" s="26" t="s">
-        <v>836</v>
+        <v>806</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B237" s="26" t="s">
-        <v>846</v>
+      <c r="B237" s="25" t="s">
+        <v>797</v>
       </c>
       <c r="C237" s="26" t="s">
-        <v>838</v>
+        <v>807</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B238" s="26" t="s">
-        <v>1291</v>
+      <c r="B238" s="25" t="s">
+        <v>798</v>
       </c>
       <c r="C238" s="26" t="s">
-        <v>203</v>
+        <v>808</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B239" s="26" t="s">
-        <v>1295</v>
+      <c r="B239" s="25" t="s">
+        <v>799</v>
       </c>
       <c r="C239" s="26" t="s">
-        <v>1108</v>
+        <v>809</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B240" s="26" t="s">
-        <v>1299</v>
+      <c r="B240" s="25" t="s">
+        <v>800</v>
       </c>
       <c r="C240" s="26" t="s">
-        <v>428</v>
+        <v>810</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B241" s="26" t="s">
-        <v>1300</v>
+      <c r="B241" s="25" t="s">
+        <v>801</v>
       </c>
       <c r="C241" s="26" t="s">
-        <v>1122</v>
+        <v>811</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B242" s="26" t="s">
-        <v>1499</v>
+      <c r="B242" s="25" t="s">
+        <v>802</v>
       </c>
       <c r="C242" s="26" t="s">
-        <v>920</v>
+        <v>812</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -10864,21 +10924,21 @@
         <v>254</v>
       </c>
       <c r="B243" s="26" t="s">
-        <v>1500</v>
+        <v>826</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>222</v>
+        <v>827</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B244" s="26" t="s">
-        <v>1114</v>
+      <c r="B244" s="2" t="s">
+        <v>835</v>
       </c>
       <c r="C244" s="26" t="s">
-        <v>1236</v>
+        <v>836</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -10886,10 +10946,10 @@
         <v>254</v>
       </c>
       <c r="B245" s="26" t="s">
-        <v>1115</v>
+        <v>846</v>
       </c>
       <c r="C245" s="26" t="s">
-        <v>1288</v>
+        <v>838</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -10897,10 +10957,10 @@
         <v>254</v>
       </c>
       <c r="B246" s="26" t="s">
-        <v>1254</v>
+        <v>1291</v>
       </c>
       <c r="C246" s="26" t="s">
-        <v>1289</v>
+        <v>203</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -10908,18 +10968,21 @@
         <v>254</v>
       </c>
       <c r="B247" s="26" t="s">
-        <v>1255</v>
+        <v>1295</v>
       </c>
       <c r="C247" s="26" t="s">
-        <v>1290</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="26" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>897</v>
+        <v>1299</v>
+      </c>
+      <c r="C248" s="26" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -10927,10 +10990,10 @@
         <v>254</v>
       </c>
       <c r="B249" s="26" t="s">
-        <v>891</v>
+        <v>1300</v>
       </c>
       <c r="C249" s="26" t="s">
-        <v>263</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -10938,10 +11001,10 @@
         <v>254</v>
       </c>
       <c r="B250" s="26" t="s">
-        <v>892</v>
+        <v>1499</v>
       </c>
       <c r="C250" s="26" t="s">
-        <v>262</v>
+        <v>920</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -10949,10 +11012,10 @@
         <v>254</v>
       </c>
       <c r="B251" s="26" t="s">
-        <v>893</v>
+        <v>1500</v>
       </c>
       <c r="C251" s="26" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -10960,10 +11023,10 @@
         <v>254</v>
       </c>
       <c r="B252" s="26" t="s">
-        <v>894</v>
+        <v>1114</v>
       </c>
       <c r="C252" s="26" t="s">
-        <v>160</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -10971,10 +11034,10 @@
         <v>254</v>
       </c>
       <c r="B253" s="26" t="s">
-        <v>895</v>
+        <v>1115</v>
       </c>
       <c r="C253" s="26" t="s">
-        <v>41</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -10982,10 +11045,10 @@
         <v>254</v>
       </c>
       <c r="B254" s="26" t="s">
-        <v>896</v>
+        <v>1254</v>
       </c>
       <c r="C254" s="26" t="s">
-        <v>72</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -10993,10 +11056,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>1381</v>
+        <v>1255</v>
       </c>
       <c r="C255" s="26" t="s">
-        <v>72</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -11004,7 +11067,7 @@
         <v>369</v>
       </c>
       <c r="B256" s="26" t="s">
-        <v>1331</v>
+        <v>897</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -11012,7 +11075,7 @@
         <v>254</v>
       </c>
       <c r="B257" s="26" t="s">
-        <v>1332</v>
+        <v>891</v>
       </c>
       <c r="C257" s="26" t="s">
         <v>263</v>
@@ -11023,7 +11086,7 @@
         <v>254</v>
       </c>
       <c r="B258" s="26" t="s">
-        <v>1333</v>
+        <v>892</v>
       </c>
       <c r="C258" s="26" t="s">
         <v>262</v>
@@ -11034,7 +11097,7 @@
         <v>254</v>
       </c>
       <c r="B259" s="26" t="s">
-        <v>1334</v>
+        <v>893</v>
       </c>
       <c r="C259" s="26" t="s">
         <v>194</v>
@@ -11045,7 +11108,7 @@
         <v>254</v>
       </c>
       <c r="B260" s="26" t="s">
-        <v>1376</v>
+        <v>894</v>
       </c>
       <c r="C260" s="26" t="s">
         <v>160</v>
@@ -11056,9 +11119,94 @@
         <v>254</v>
       </c>
       <c r="B261" s="26" t="s">
+        <v>895</v>
+      </c>
+      <c r="C261" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B262" s="26" t="s">
+        <v>896</v>
+      </c>
+      <c r="C262" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B263" s="26" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C263" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="B264" s="26" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B265" s="26" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C265" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B266" s="26" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C266" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B267" s="26" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C267" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B268" s="26" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C268" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B269" s="26" t="s">
         <v>1377</v>
       </c>
-      <c r="C261" s="26" t="s">
+      <c r="C269" s="26" t="s">
         <v>1378</v>
       </c>
     </row>
@@ -11066,19 +11214,22 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C72:C73" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F250626D-250B-4167-9842-5482DF23271D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="16.5"/>
@@ -11418,243 +11569,246 @@
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1">
       <c r="A20" s="20" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>742</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>1622</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>1623</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1">
       <c r="A21" s="20" t="s">
-        <v>578</v>
+        <v>1625</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>742</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>450</v>
+        <v>1626</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>890</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1">
       <c r="A22" s="20" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>742</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>904</v>
+        <v>450</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>473</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1">
       <c r="A23" s="20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>742</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>451</v>
+        <v>904</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1">
       <c r="A24" s="20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>742</v>
       </c>
+      <c r="C24" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="D24" s="5" t="s">
-        <v>761</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1">
       <c r="A25" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>742</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>452</v>
-      </c>
       <c r="D25" s="5" t="s">
-        <v>463</v>
+        <v>761</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1">
       <c r="A26" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>742</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1">
       <c r="A27" s="20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>742</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1">
       <c r="A28" s="20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>742</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1">
       <c r="A29" s="20" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>742</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1">
       <c r="A30" s="20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>742</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1">
       <c r="A31" s="20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>742</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1">
       <c r="A32" s="20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>742</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="5" customFormat="1">
       <c r="A33" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>742</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="5" customFormat="1">
       <c r="A34" s="20" t="s">
-        <v>1312</v>
+        <v>590</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>742</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="5" customFormat="1">
+      <c r="A35" s="20" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>1313</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>1314</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="4" customFormat="1">
-      <c r="A35" s="22" t="s">
-        <v>591</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>743</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="4" customFormat="1">
       <c r="A36" s="22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>471</v>
@@ -11662,13 +11816,13 @@
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1">
       <c r="A37" s="22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>471</v>
@@ -11676,13 +11830,13 @@
     </row>
     <row r="38" spans="1:4" s="4" customFormat="1">
       <c r="A38" s="22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>471</v>
@@ -11690,13 +11844,13 @@
     </row>
     <row r="39" spans="1:4" s="4" customFormat="1">
       <c r="A39" s="22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>471</v>
@@ -11704,13 +11858,13 @@
     </row>
     <row r="40" spans="1:4" s="4" customFormat="1">
       <c r="A40" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>471</v>
@@ -11718,13 +11872,13 @@
     </row>
     <row r="41" spans="1:4" s="4" customFormat="1">
       <c r="A41" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>471</v>
@@ -11732,13 +11886,13 @@
     </row>
     <row r="42" spans="1:4" s="4" customFormat="1">
       <c r="A42" s="22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>471</v>
@@ -11746,13 +11900,13 @@
     </row>
     <row r="43" spans="1:4" s="4" customFormat="1">
       <c r="A43" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>471</v>
@@ -11760,13 +11914,13 @@
     </row>
     <row r="44" spans="1:4" s="4" customFormat="1">
       <c r="A44" s="22" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>471</v>
@@ -11774,13 +11928,13 @@
     </row>
     <row r="45" spans="1:4" s="4" customFormat="1">
       <c r="A45" s="22" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>471</v>
@@ -11788,13 +11942,13 @@
     </row>
     <row r="46" spans="1:4" s="4" customFormat="1">
       <c r="A46" s="22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>471</v>
@@ -11802,13 +11956,13 @@
     </row>
     <row r="47" spans="1:4" s="4" customFormat="1">
       <c r="A47" s="22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>471</v>
@@ -11816,13 +11970,13 @@
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1">
       <c r="A48" s="22" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>471</v>
@@ -11830,13 +11984,13 @@
     </row>
     <row r="49" spans="1:4" s="4" customFormat="1">
       <c r="A49" s="22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>471</v>
@@ -11844,13 +11998,13 @@
     </row>
     <row r="50" spans="1:4" s="4" customFormat="1">
       <c r="A50" s="22" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>471</v>
@@ -11858,13 +12012,13 @@
     </row>
     <row r="51" spans="1:4" s="4" customFormat="1">
       <c r="A51" s="22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>471</v>
@@ -11872,13 +12026,13 @@
     </row>
     <row r="52" spans="1:4" s="4" customFormat="1">
       <c r="A52" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>471</v>
@@ -11886,139 +12040,139 @@
     </row>
     <row r="53" spans="1:4" s="4" customFormat="1">
       <c r="A53" s="22" t="s">
-        <v>1293</v>
+        <v>608</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>743</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1294</v>
+        <v>562</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="6" customFormat="1">
-      <c r="A54" s="23" t="s">
-        <v>726</v>
+    <row r="54" spans="1:4" s="4" customFormat="1">
+      <c r="A54" s="22" t="s">
+        <v>1293</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>744</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>463</v>
+        <v>743</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="6" customFormat="1">
       <c r="A55" s="23" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="6" customFormat="1">
       <c r="A56" s="23" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="6" customFormat="1">
       <c r="A57" s="23" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="6" customFormat="1">
       <c r="A58" s="23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>452</v>
+        <v>1242</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="6" customFormat="1">
       <c r="A59" s="23" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="6" customFormat="1">
       <c r="A60" s="23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B60" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>559</v>
+        <v>453</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="6" customFormat="1">
       <c r="A61" s="23" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B61" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1243</v>
+        <v>559</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="6" customFormat="1">
       <c r="A62" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B62" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>471</v>
@@ -12026,13 +12180,13 @@
     </row>
     <row r="63" spans="1:4" s="6" customFormat="1">
       <c r="A63" s="23" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B63" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>471</v>
@@ -12040,316 +12194,316 @@
     </row>
     <row r="64" spans="1:4" s="6" customFormat="1">
       <c r="A64" s="23" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B64" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="30" customFormat="1">
-      <c r="A65" s="30" t="s">
-        <v>908</v>
+    <row r="65" spans="1:4" s="6" customFormat="1">
+      <c r="A65" s="23" t="s">
+        <v>736</v>
       </c>
       <c r="B65" s="21" t="s">
         <v>744</v>
       </c>
-      <c r="C65" s="30" t="s">
-        <v>1123</v>
+      <c r="C65" s="6" t="s">
+        <v>1246</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="30" customFormat="1">
+    <row r="66" spans="1:4" s="30" customFormat="1">
       <c r="A66" s="30" t="s">
-        <v>1120</v>
+        <v>908</v>
       </c>
       <c r="B66" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="30" customFormat="1">
+    <row r="67" spans="1:4" s="30" customFormat="1">
       <c r="A67" s="30" t="s">
-        <v>910</v>
+        <v>1120</v>
       </c>
       <c r="B67" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>1247</v>
+        <v>1124</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="30" customFormat="1">
+    <row r="68" spans="1:4" s="30" customFormat="1">
       <c r="A68" s="30" t="s">
-        <v>1121</v>
+        <v>910</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="30" customFormat="1">
+    <row r="69" spans="1:4" s="30" customFormat="1">
       <c r="A69" s="30" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>1127</v>
+        <v>1248</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="30" customFormat="1">
+    <row r="70" spans="1:4" s="30" customFormat="1">
       <c r="A70" s="30" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="30" customFormat="1">
+    <row r="71" spans="1:4" s="30" customFormat="1">
       <c r="A71" s="30" t="s">
-        <v>911</v>
+        <v>1126</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>460</v>
+        <v>1128</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="30" customFormat="1">
+    <row r="72" spans="1:4" s="30" customFormat="1">
       <c r="A72" s="30" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="30" customFormat="1">
+    <row r="73" spans="1:4" s="30" customFormat="1">
       <c r="A73" s="30" t="s">
-        <v>1235</v>
+        <v>912</v>
       </c>
       <c r="B73" s="21" t="s">
         <v>744</v>
       </c>
       <c r="C73" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="30" customFormat="1">
+      <c r="A74" s="30" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="C74" s="30" t="s">
         <v>1298</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D74" s="6" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="17" customFormat="1">
-      <c r="A74" s="17" t="s">
+    <row r="75" spans="1:4" s="17" customFormat="1">
+      <c r="A75" s="17" t="s">
         <v>891</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="17" customFormat="1">
-      <c r="A75" s="17" t="s">
-        <v>892</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C75" s="17" t="s">
-        <v>755</v>
-      </c>
       <c r="D75" s="17" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="17" customFormat="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="17" customFormat="1">
       <c r="A76" s="17" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>256</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="17" customFormat="1">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="17" customFormat="1">
       <c r="A77" s="17" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>256</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="17" customFormat="1">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="17" customFormat="1">
       <c r="A78" s="17" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>256</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="17" customFormat="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="17" customFormat="1">
       <c r="A79" s="17" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>256</v>
       </c>
       <c r="C79" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="17" customFormat="1">
+      <c r="A80" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>759</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D80" s="17" t="s">
         <v>463</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="6" customFormat="1">
-      <c r="A80" s="6" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>1314</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="6" customFormat="1">
       <c r="A81" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>1335</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1336</v>
+        <v>1313</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>463</v>
+        <v>1314</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="6" customFormat="1">
       <c r="A82" s="6" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>1335</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1570</v>
+        <v>1336</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="6" customFormat="1">
       <c r="A83" s="6" t="s">
-        <v>1376</v>
+        <v>1334</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>1335</v>
       </c>
       <c r="C83" s="6" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="6" customFormat="1">
+      <c r="A84" s="6" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>1571</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D84" s="6" t="s">
         <v>1380</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E84" s="6" t="s">
         <v>1379</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="4" customFormat="1">
-      <c r="A84" s="22" t="s">
-        <v>771</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>780</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="4" customFormat="1">
       <c r="A85" s="22" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>780</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>471</v>
@@ -12357,13 +12511,13 @@
     </row>
     <row r="86" spans="1:5" s="4" customFormat="1">
       <c r="A86" s="22" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>780</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>471</v>
@@ -12371,13 +12525,13 @@
     </row>
     <row r="87" spans="1:5" s="4" customFormat="1">
       <c r="A87" s="22" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B87" s="18" t="s">
         <v>780</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>471</v>
@@ -12385,13 +12539,13 @@
     </row>
     <row r="88" spans="1:5" s="4" customFormat="1">
       <c r="A88" s="22" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>780</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>471</v>
@@ -12399,13 +12553,13 @@
     </row>
     <row r="89" spans="1:5" s="4" customFormat="1">
       <c r="A89" s="22" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>780</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>471</v>
@@ -12413,13 +12567,13 @@
     </row>
     <row r="90" spans="1:5" s="4" customFormat="1">
       <c r="A90" s="22" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>780</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>471</v>
@@ -12427,13 +12581,13 @@
     </row>
     <row r="91" spans="1:5" s="4" customFormat="1">
       <c r="A91" s="22" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>780</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>471</v>
@@ -12441,13 +12595,13 @@
     </row>
     <row r="92" spans="1:5" s="4" customFormat="1">
       <c r="A92" s="22" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>780</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>471</v>
@@ -12455,13 +12609,13 @@
     </row>
     <row r="93" spans="1:5" s="4" customFormat="1">
       <c r="A93" s="22" t="s">
-        <v>1517</v>
+        <v>779</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>780</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1516</v>
+        <v>770</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>471</v>
@@ -12469,41 +12623,41 @@
     </row>
     <row r="94" spans="1:5" s="4" customFormat="1">
       <c r="A94" s="22" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>780</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="32" customFormat="1">
-      <c r="A95" s="31" t="s">
-        <v>785</v>
+    <row r="95" spans="1:5" s="4" customFormat="1">
+      <c r="A95" s="22" t="s">
+        <v>1519</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>813</v>
-      </c>
-      <c r="C95" s="32" t="s">
-        <v>815</v>
-      </c>
-      <c r="D95" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="32" customFormat="1">
       <c r="A96" s="31" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>813</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D96" s="32" t="s">
         <v>471</v>
@@ -12511,13 +12665,13 @@
     </row>
     <row r="97" spans="1:4" s="32" customFormat="1">
       <c r="A97" s="31" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>813</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D97" s="32" t="s">
         <v>471</v>
@@ -12525,13 +12679,13 @@
     </row>
     <row r="98" spans="1:4" s="32" customFormat="1">
       <c r="A98" s="31" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>813</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D98" s="32" t="s">
         <v>471</v>
@@ -12539,13 +12693,13 @@
     </row>
     <row r="99" spans="1:4" s="32" customFormat="1">
       <c r="A99" s="31" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>813</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D99" s="32" t="s">
         <v>471</v>
@@ -12553,41 +12707,41 @@
     </row>
     <row r="100" spans="1:4" s="32" customFormat="1">
       <c r="A100" s="31" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>813</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D100" s="32" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="17" customFormat="1">
-      <c r="A101" s="33" t="s">
-        <v>791</v>
+    <row r="101" spans="1:4" s="32" customFormat="1">
+      <c r="A101" s="31" t="s">
+        <v>790</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>814</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>746</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>473</v>
+        <v>813</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>820</v>
+      </c>
+      <c r="D101" s="32" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="17" customFormat="1">
       <c r="A102" s="33" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>821</v>
+        <v>746</v>
       </c>
       <c r="D102" s="17" t="s">
         <v>473</v>
@@ -12595,13 +12749,13 @@
     </row>
     <row r="103" spans="1:4" s="17" customFormat="1">
       <c r="A103" s="33" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>747</v>
+        <v>821</v>
       </c>
       <c r="D103" s="17" t="s">
         <v>473</v>
@@ -12609,13 +12763,13 @@
     </row>
     <row r="104" spans="1:4" s="17" customFormat="1">
       <c r="A104" s="33" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>822</v>
+        <v>747</v>
       </c>
       <c r="D104" s="17" t="s">
         <v>473</v>
@@ -12623,13 +12777,13 @@
     </row>
     <row r="105" spans="1:4" s="17" customFormat="1">
       <c r="A105" s="33" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>751</v>
+        <v>822</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>473</v>
@@ -12637,13 +12791,13 @@
     </row>
     <row r="106" spans="1:4" s="17" customFormat="1">
       <c r="A106" s="33" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>823</v>
+        <v>751</v>
       </c>
       <c r="D106" s="17" t="s">
         <v>473</v>
@@ -12651,13 +12805,13 @@
     </row>
     <row r="107" spans="1:4" s="17" customFormat="1">
       <c r="A107" s="33" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D107" s="17" t="s">
         <v>473</v>
@@ -12665,13 +12819,13 @@
     </row>
     <row r="108" spans="1:4" s="17" customFormat="1">
       <c r="A108" s="33" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>745</v>
+        <v>824</v>
       </c>
       <c r="D108" s="17" t="s">
         <v>473</v>
@@ -12679,13 +12833,13 @@
     </row>
     <row r="109" spans="1:4" s="17" customFormat="1">
       <c r="A109" s="33" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>825</v>
+        <v>745</v>
       </c>
       <c r="D109" s="17" t="s">
         <v>473</v>
@@ -12693,13 +12847,13 @@
     </row>
     <row r="110" spans="1:4" s="17" customFormat="1">
       <c r="A110" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B110" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>783</v>
+        <v>825</v>
       </c>
       <c r="D110" s="17" t="s">
         <v>473</v>
@@ -12707,13 +12861,13 @@
     </row>
     <row r="111" spans="1:4" s="17" customFormat="1">
       <c r="A111" s="33" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>748</v>
+        <v>783</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>473</v>
@@ -12721,27 +12875,27 @@
     </row>
     <row r="112" spans="1:4" s="17" customFormat="1">
       <c r="A112" s="33" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="17" customFormat="1">
-      <c r="A113" s="17" t="s">
-        <v>826</v>
+      <c r="A113" s="33" t="s">
+        <v>802</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D113" s="17" t="s">
         <v>473</v>
@@ -12749,13 +12903,13 @@
     </row>
     <row r="114" spans="1:4" s="17" customFormat="1">
       <c r="A114" s="17" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>473</v>
@@ -12763,13 +12917,13 @@
     </row>
     <row r="115" spans="1:4" s="17" customFormat="1">
       <c r="A115" s="17" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>473</v>
@@ -12777,13 +12931,13 @@
     </row>
     <row r="116" spans="1:4" s="17" customFormat="1">
       <c r="A116" s="17" t="s">
-        <v>1291</v>
+        <v>846</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>1292</v>
+        <v>782</v>
       </c>
       <c r="D116" s="17" t="s">
         <v>473</v>
@@ -12791,13 +12945,13 @@
     </row>
     <row r="117" spans="1:4" s="17" customFormat="1">
       <c r="A117" s="17" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="B117" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="D117" s="17" t="s">
         <v>473</v>
@@ -12805,13 +12959,13 @@
     </row>
     <row r="118" spans="1:4" s="17" customFormat="1">
       <c r="A118" s="17" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="B118" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="D118" s="17" t="s">
         <v>473</v>
@@ -12819,13 +12973,13 @@
     </row>
     <row r="119" spans="1:4" s="17" customFormat="1">
       <c r="A119" s="17" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>473</v>
@@ -12833,13 +12987,13 @@
     </row>
     <row r="120" spans="1:4" s="17" customFormat="1">
       <c r="A120" s="17" t="s">
-        <v>1499</v>
+        <v>1300</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>1501</v>
+        <v>1302</v>
       </c>
       <c r="D120" s="17" t="s">
         <v>473</v>
@@ -12847,13 +13001,13 @@
     </row>
     <row r="121" spans="1:4" s="17" customFormat="1">
       <c r="A121" s="17" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D121" s="17" t="s">
         <v>473</v>
@@ -12861,13 +13015,13 @@
     </row>
     <row r="122" spans="1:4" s="17" customFormat="1">
       <c r="A122" s="17" t="s">
-        <v>1114</v>
+        <v>1500</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>1223</v>
+        <v>1502</v>
       </c>
       <c r="D122" s="17" t="s">
         <v>473</v>
@@ -12875,13 +13029,13 @@
     </row>
     <row r="123" spans="1:4" s="17" customFormat="1">
       <c r="A123" s="17" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>753</v>
+        <v>1223</v>
       </c>
       <c r="D123" s="17" t="s">
         <v>473</v>
@@ -12889,13 +13043,13 @@
     </row>
     <row r="124" spans="1:4" s="17" customFormat="1">
       <c r="A124" s="17" t="s">
-        <v>1254</v>
+        <v>1115</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D124" s="17" t="s">
         <v>473</v>
@@ -12903,15 +13057,29 @@
     </row>
     <row r="125" spans="1:4" s="17" customFormat="1">
       <c r="A125" s="17" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>814</v>
       </c>
       <c r="C125" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="17" customFormat="1">
+      <c r="A126" s="17" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="C126" s="17" t="s">
         <v>879</v>
       </c>
-      <c r="D125" s="17" t="s">
+      <c r="D126" s="17" t="s">
         <v>473</v>
       </c>
     </row>
@@ -16059,11 +16227,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E536BB9-2F6B-46F9-B5CA-2EDF567D7AD3}">
   <dimension ref="A1:CN134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P57" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="AD54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y73" sqref="Y73"/>
+      <selection pane="bottomRight" activeCell="AO73" sqref="AO73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -23794,7 +23962,7 @@
         <v>1173</v>
       </c>
       <c r="BG72" s="17" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="BH72" s="17" t="s">
         <v>1171</v>
@@ -23968,7 +24136,7 @@
         <v>1174</v>
       </c>
       <c r="Y73" s="17" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="Z73" s="17" t="s">
         <v>1174</v>
@@ -24016,7 +24184,7 @@
         <v>1524</v>
       </c>
       <c r="AO73" s="17" t="s">
-        <v>1342</v>
+        <v>1628</v>
       </c>
       <c r="AP73" s="17" t="s">
         <v>1342</v>
@@ -29874,8 +30042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8243684B-26F0-48AD-9220-25F8EBBE7936}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -30124,7 +30292,7 @@
         <v>1010</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1594</v>
@@ -30226,7 +30394,7 @@
         <v>1020</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1595</v>
@@ -30258,7 +30426,7 @@
         <v>1030</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1596</v>
@@ -30290,7 +30458,7 @@
         <v>1040</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1597</v>
@@ -30342,7 +30510,7 @@
         <v>3050</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
         <v>1388</v>
@@ -30374,7 +30542,7 @@
         <v>3060</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
         <v>1389</v>
@@ -30406,7 +30574,7 @@
         <v>3070</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>1390</v>
@@ -30916,7 +31084,7 @@
         <v>10B0</v>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
         <v>1618</v>
@@ -30936,14 +31104,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="A2:C2"/>
@@ -30956,6 +31116,14 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="Y2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576 H1:H1048576 K1:K1048576 N1:N1048576 B1:B1048576">

--- a/src/json/w3x/SkillArchive/Master.xlsx
+++ b/src/json/w3x/SkillArchive/Master.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SandfoxArchive\src\json\w3x\SkillArchive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48EA4A9-0880-4D35-BC66-2A9B710AC9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4FD0AA-122C-4977-9304-0EE28FBB5AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="스탯아이콘 정리" sheetId="10" r:id="rId1"/>
-    <sheet name="Config" sheetId="3" r:id="rId2"/>
-    <sheet name="CustomString" sheetId="4" r:id="rId3"/>
-    <sheet name="BuffParams" sheetId="1" r:id="rId4"/>
-    <sheet name="AbilityParams" sheetId="7" r:id="rId5"/>
-    <sheet name="UnitParams" sheetId="5" r:id="rId6"/>
-    <sheet name="AbilityTooltips" sheetId="2" r:id="rId7"/>
-    <sheet name="AbilityMix" sheetId="8" r:id="rId8"/>
-    <sheet name="AbilityTable" sheetId="9" r:id="rId9"/>
+    <sheet name="Config" sheetId="3" r:id="rId1"/>
+    <sheet name="CustomString" sheetId="4" r:id="rId2"/>
+    <sheet name="BuffParams" sheetId="1" r:id="rId3"/>
+    <sheet name="AbilityParams" sheetId="7" r:id="rId4"/>
+    <sheet name="UnitParams" sheetId="5" r:id="rId5"/>
+    <sheet name="AbilityTooltips" sheetId="2" r:id="rId6"/>
+    <sheet name="AbilityMix" sheetId="8" r:id="rId7"/>
+    <sheet name="AbilityTable" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">AbilityParams!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BuffParams!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">UnitParams!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">AbilityParams!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BuffParams!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UnitParams!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5274" uniqueCount="1655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5244" uniqueCount="1655">
   <si>
     <t>NULL</t>
   </si>
@@ -6001,18 +6000,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ffcc99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬가속</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cc9966</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>탐욕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6034,6 +6025,14 @@
   </si>
   <si>
     <t>STAT_GREED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22//E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6041,7 +6040,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6109,170 +6108,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00FF00"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00DD00"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00CC00"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF9900"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF6600"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFCC99"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0099FF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0088DD"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF6666DD"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF9999FF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF9999DD"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00FF99"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFCC9966"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF3333"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF00FF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF99FF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF99CCFF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFCC00"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6414,108 +6251,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DD00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0099FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0088DD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6666DD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9999FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9999DD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC9966"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3333"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7073,7 +6808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="352">
+  <cellXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -7503,81 +7238,6 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="24" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8381,911 +8041,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{231979AE-9240-4FA6-9282-199705E4DC57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B3C6BA-5EFA-41AD-88DD-F5B72B798A97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="609600"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A3D7C1E-BAC8-4C3E-96A1-BAA95FD69B21}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1219200"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFA1CA0-D5E8-4DC7-BE53-A90A36E4F0DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1828800"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40479C0-F5BE-4128-8794-8FB8EC079DA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2438400"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F1449CA-920B-4B77-A1EA-56F2BE545AA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3143250" y="0"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="그림 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0258280-599C-40E7-BE3E-4DD953D353BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3143250" y="609600"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="그림 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA4F367-B3A7-44FF-A1D2-ED328124C90E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3143250" y="1219200"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="그림 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EBDED6-B802-4C8D-8308-87D46014178C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3143250" y="1828800"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="그림 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D0C7F1-1813-4380-B25A-9A36A0845C53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3143250" y="2438400"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="그림 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1ADBD7-098E-4BAC-A07C-57527AFEAA4A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3048000"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="그림 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8D124E-45F4-4797-BCDD-A852487C4685}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3143250" y="3048000"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="그림 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC1B6DB-5DCE-4965-B1EE-B5C1563601DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6191250" y="1828800"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="그림 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0F84BA-4759-4137-B18F-6CB7BD6B0CB3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6191250" y="2438400"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="그림 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529303C4-31AB-41E6-B087-AA4D5B7EF808}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6191250" y="3048000"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="그림 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5634C65C-1BF6-4C8C-86A9-4ED484CAEBDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6191250" y="0"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="그림 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2553DDD3-79FC-40AF-ADAB-CE65E3F97626}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6191250" y="609600"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="그림 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F1A458F-FF2B-48DF-AA72-D55FAA51FE77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6191250" y="1219200"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -9582,179 +8337,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D013642-5023-4926-951E-F5B4A582C3A1}">
-  <dimension ref="B1:L9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="3" max="4" width="12.125" style="314" customWidth="1"/>
-    <col min="5" max="6" width="8" customWidth="1"/>
-    <col min="7" max="8" width="12" style="314" customWidth="1"/>
-    <col min="9" max="10" width="8" customWidth="1"/>
-    <col min="11" max="12" width="12" style="314" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="48" customHeight="1">
-      <c r="B1" s="313"/>
-      <c r="C1" s="332" t="s">
-        <v>460</v>
-      </c>
-      <c r="D1" s="332" t="s">
-        <v>905</v>
-      </c>
-      <c r="F1" s="320"/>
-      <c r="G1" s="338" t="s">
-        <v>461</v>
-      </c>
-      <c r="H1" s="338" t="s">
-        <v>906</v>
-      </c>
-      <c r="J1" s="330"/>
-      <c r="K1" s="344" t="s">
-        <v>1648</v>
-      </c>
-      <c r="L1" s="344" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="48" customHeight="1">
-      <c r="B2" s="315"/>
-      <c r="C2" s="333" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D2" s="333" t="s">
-        <v>446</v>
-      </c>
-      <c r="F2" s="321"/>
-      <c r="G2" s="339" t="s">
-        <v>1642</v>
-      </c>
-      <c r="H2" s="339" t="s">
-        <v>447</v>
-      </c>
-      <c r="J2" s="331"/>
-      <c r="K2" s="345" t="s">
-        <v>471</v>
-      </c>
-      <c r="L2" s="345" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="48" customHeight="1">
-      <c r="B3" s="316"/>
-      <c r="C3" s="334" t="s">
-        <v>469</v>
-      </c>
-      <c r="D3" s="334" t="s">
-        <v>444</v>
-      </c>
-      <c r="F3" s="322"/>
-      <c r="G3" s="340" t="s">
-        <v>1644</v>
-      </c>
-      <c r="H3" s="340" t="s">
-        <v>1643</v>
-      </c>
-      <c r="J3" s="317"/>
-      <c r="K3" s="349" t="s">
-        <v>1313</v>
-      </c>
-      <c r="L3" s="349" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="48" customHeight="1">
-      <c r="B4" s="318"/>
-      <c r="C4" s="335" t="s">
-        <v>462</v>
-      </c>
-      <c r="D4" s="335" t="s">
-        <v>434</v>
-      </c>
-      <c r="F4" s="323"/>
-      <c r="G4" s="341" t="s">
-        <v>463</v>
-      </c>
-      <c r="H4" s="341" t="s">
-        <v>436</v>
-      </c>
-      <c r="J4" s="327"/>
-      <c r="K4" s="346" t="s">
-        <v>465</v>
-      </c>
-      <c r="L4" s="346" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="48" customHeight="1">
-      <c r="B5" s="319"/>
-      <c r="C5" s="336" t="s">
-        <v>1641</v>
-      </c>
-      <c r="D5" s="336" t="s">
-        <v>440</v>
-      </c>
-      <c r="F5" s="324"/>
-      <c r="G5" s="342" t="s">
-        <v>1645</v>
-      </c>
-      <c r="H5" s="342" t="s">
-        <v>441</v>
-      </c>
-      <c r="J5" s="329"/>
-      <c r="K5" s="347" t="s">
-        <v>467</v>
-      </c>
-      <c r="L5" s="347" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="48" customHeight="1">
-      <c r="B6" s="325"/>
-      <c r="C6" s="337" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D6" s="337" t="s">
-        <v>435</v>
-      </c>
-      <c r="F6" s="326"/>
-      <c r="G6" s="343" t="s">
-        <v>464</v>
-      </c>
-      <c r="H6" s="343" t="s">
-        <v>437</v>
-      </c>
-      <c r="J6" s="328"/>
-      <c r="K6" s="348" t="s">
-        <v>466</v>
-      </c>
-      <c r="L6" s="348" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="48" customHeight="1"/>
-    <row r="8" spans="2:12" ht="48" customHeight="1"/>
-    <row r="9" spans="2:12" ht="48" customHeight="1"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82B59F9-BB29-4C65-AAB0-AE2037E57A09}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C269"/>
+  <dimension ref="A1:C271"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="J199" sqref="J199"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10557,52 +9145,52 @@
         <v>254</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>655</v>
+        <v>1650</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>1544</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="27" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="C75" s="27"/>
+        <v>1648</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>1653</v>
+      </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="C76" s="27">
-        <v>100</v>
+        <v>655</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="27" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="C77" s="27">
-        <v>101</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C77" s="27"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C78" s="27">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -10610,10 +9198,10 @@
         <v>254</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C79" s="27">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -10621,10 +9209,10 @@
         <v>254</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C80" s="27">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -10632,10 +9220,10 @@
         <v>254</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C81" s="27">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -10643,10 +9231,10 @@
         <v>254</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C82" s="27">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -10654,10 +9242,10 @@
         <v>254</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C83" s="27">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -10665,10 +9253,10 @@
         <v>254</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C84" s="27">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -10676,10 +9264,10 @@
         <v>254</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C85" s="27">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -10687,10 +9275,10 @@
         <v>254</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C86" s="27">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -10698,10 +9286,10 @@
         <v>254</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C87" s="27">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -10709,10 +9297,10 @@
         <v>254</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C88" s="27">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -10720,52 +9308,52 @@
         <v>254</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>1314</v>
+        <v>588</v>
+      </c>
+      <c r="C89" s="27">
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="27" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C90" s="27"/>
+        <v>589</v>
+      </c>
+      <c r="C90" s="27">
+        <v>112</v>
+      </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>656</v>
-      </c>
-      <c r="C91" s="27">
-        <v>0</v>
+        <v>1311</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="27" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>657</v>
-      </c>
-      <c r="C92" s="27">
-        <v>1</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C92" s="27"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C93" s="27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -10773,10 +9361,10 @@
         <v>254</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C94" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -10784,10 +9372,10 @@
         <v>254</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C95" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -10795,10 +9383,10 @@
         <v>254</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C96" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -10806,52 +9394,52 @@
         <v>254</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>662</v>
-      </c>
-      <c r="C97" s="27" t="s">
-        <v>425</v>
+        <v>660</v>
+      </c>
+      <c r="C97" s="27">
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="27" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="C98" s="27"/>
+        <v>661</v>
+      </c>
+      <c r="C98" s="27">
+        <v>5</v>
+      </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>590</v>
-      </c>
-      <c r="C99" s="27">
-        <v>0</v>
+        <v>662</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="27" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>591</v>
-      </c>
-      <c r="C100" s="27">
-        <v>1</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C100" s="27"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C101" s="27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -10859,10 +9447,10 @@
         <v>254</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C102" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -10870,10 +9458,10 @@
         <v>254</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C103" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -10881,10 +9469,10 @@
         <v>254</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C104" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -10892,10 +9480,10 @@
         <v>254</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C105" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -10903,10 +9491,10 @@
         <v>254</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C106" s="27">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -10914,10 +9502,10 @@
         <v>254</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C107" s="27">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -10925,10 +9513,10 @@
         <v>254</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C108" s="27">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -10936,10 +9524,10 @@
         <v>254</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C109" s="27">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -10947,10 +9535,10 @@
         <v>254</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C110" s="27">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -10958,10 +9546,10 @@
         <v>254</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C111" s="27">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -10969,10 +9557,10 @@
         <v>254</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C112" s="27">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -10980,10 +9568,10 @@
         <v>254</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C113" s="27">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -10991,10 +9579,10 @@
         <v>254</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C114" s="27">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -11002,10 +9590,10 @@
         <v>254</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C115" s="27">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -11013,10 +9601,10 @@
         <v>254</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>607</v>
-      </c>
-      <c r="C116" s="27" t="s">
-        <v>428</v>
+        <v>605</v>
+      </c>
+      <c r="C116" s="27">
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -11024,10 +9612,10 @@
         <v>254</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C117" s="27" t="s">
-        <v>1121</v>
+        <v>606</v>
+      </c>
+      <c r="C117" s="27">
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -11035,10 +9623,10 @@
         <v>254</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>1543</v>
+        <v>607</v>
       </c>
       <c r="C118" s="27" t="s">
-        <v>919</v>
+        <v>428</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -11046,10 +9634,10 @@
         <v>254</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>663</v>
+        <v>1292</v>
       </c>
       <c r="C119" s="27" t="s">
-        <v>1544</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -11057,52 +9645,52 @@
         <v>254</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>664</v>
-      </c>
-      <c r="C120" s="27">
-        <v>100</v>
+        <v>1543</v>
+      </c>
+      <c r="C120" s="27" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="27" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>724</v>
-      </c>
-      <c r="C121" s="27"/>
+        <v>663</v>
+      </c>
+      <c r="C121" s="27" t="s">
+        <v>1544</v>
+      </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>725</v>
-      </c>
-      <c r="C122" s="27" t="s">
-        <v>263</v>
+        <v>664</v>
+      </c>
+      <c r="C122" s="27">
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="27" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>726</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>262</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="C123" s="27"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C124" s="27" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -11110,10 +9698,10 @@
         <v>254</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C125" s="27" t="s">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -11121,10 +9709,10 @@
         <v>254</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C126" s="27" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -11132,10 +9720,10 @@
         <v>254</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C127" s="27" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -11143,10 +9731,10 @@
         <v>254</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C128" s="27" t="s">
-        <v>736</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -11154,10 +9742,10 @@
         <v>254</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>737</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -11165,10 +9753,10 @@
         <v>254</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C130" s="27" t="s">
-        <v>89</v>
+        <v>736</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -11176,10 +9764,10 @@
         <v>254</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C131" s="27" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -11187,10 +9775,10 @@
         <v>254</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C132" s="27" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -11198,10 +9786,10 @@
         <v>254</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>907</v>
+        <v>734</v>
       </c>
       <c r="C133" s="27" t="s">
-        <v>908</v>
+        <v>738</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -11209,10 +9797,10 @@
         <v>254</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>1119</v>
+        <v>735</v>
       </c>
       <c r="C134" s="27" t="s">
-        <v>826</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -11220,10 +9808,10 @@
         <v>254</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C135" s="27" t="s">
-        <v>835</v>
+        <v>908</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -11231,10 +9819,10 @@
         <v>254</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C136" s="27" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -11242,10 +9830,10 @@
         <v>254</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>1124</v>
+        <v>909</v>
       </c>
       <c r="C137" s="27" t="s">
-        <v>203</v>
+        <v>835</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -11253,10 +9841,10 @@
         <v>254</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="C138" s="27" t="s">
-        <v>1107</v>
+        <v>837</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -11264,10 +9852,10 @@
         <v>254</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>910</v>
+        <v>1124</v>
       </c>
       <c r="C139" s="27" t="s">
-        <v>428</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -11275,10 +9863,10 @@
         <v>254</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>911</v>
+        <v>1125</v>
       </c>
       <c r="C140" s="27" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -11286,52 +9874,52 @@
         <v>254</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>1234</v>
+        <v>910</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>1235</v>
+        <v>428</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="27" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="C142" s="27"/>
+        <v>911</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>1121</v>
+      </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>665</v>
-      </c>
-      <c r="C143" s="27">
-        <v>0</v>
+        <v>1234</v>
+      </c>
+      <c r="C143" s="27" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="27" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>666</v>
-      </c>
-      <c r="C144" s="27">
-        <v>1</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C144" s="27"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C145" s="27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -11339,10 +9927,10 @@
         <v>254</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C146" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -11350,10 +9938,10 @@
         <v>254</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C147" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -11361,10 +9949,10 @@
         <v>254</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C148" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -11372,10 +9960,10 @@
         <v>254</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C149" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -11383,10 +9971,10 @@
         <v>254</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C150" s="27">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -11394,10 +9982,10 @@
         <v>254</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C151" s="27">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -11405,10 +9993,10 @@
         <v>254</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C152" s="27" t="s">
-        <v>738</v>
+        <v>672</v>
+      </c>
+      <c r="C152" s="27">
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -11416,10 +10004,10 @@
         <v>254</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C153" s="27" t="s">
-        <v>199</v>
+        <v>673</v>
+      </c>
+      <c r="C153" s="27">
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -11427,10 +10015,10 @@
         <v>254</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>908</v>
+        <v>738</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -11438,10 +10026,10 @@
         <v>254</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>826</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -11449,10 +10037,10 @@
         <v>254</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>1564</v>
+        <v>1519</v>
       </c>
       <c r="C156" s="27" t="s">
-        <v>835</v>
+        <v>908</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -11460,10 +10048,10 @@
         <v>254</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>674</v>
+        <v>1540</v>
       </c>
       <c r="C157" s="27" t="s">
-        <v>1565</v>
+        <v>826</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -11471,52 +10059,52 @@
         <v>254</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>1536</v>
+        <v>1564</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>1235</v>
+        <v>835</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="27" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="C159" s="27"/>
+        <v>674</v>
+      </c>
+      <c r="C159" s="27" t="s">
+        <v>1565</v>
+      </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>675</v>
-      </c>
-      <c r="C160" s="27">
-        <v>10</v>
+        <v>1536</v>
+      </c>
+      <c r="C160" s="27" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="27" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>676</v>
-      </c>
-      <c r="C161" s="27" t="s">
-        <v>409</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="C161" s="27"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>677</v>
-      </c>
-      <c r="C162" s="27" t="s">
-        <v>410</v>
+        <v>675</v>
+      </c>
+      <c r="C162" s="27">
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -11524,10 +10112,10 @@
         <v>254</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -11535,10 +10123,10 @@
         <v>254</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C164" s="27" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -11546,10 +10134,10 @@
         <v>254</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C165" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -11557,10 +10145,10 @@
         <v>254</v>
       </c>
       <c r="B166" s="25" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C166" s="27" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -11568,32 +10156,32 @@
         <v>254</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>1494</v>
+        <v>680</v>
       </c>
       <c r="C167" s="27" t="s">
-        <v>1495</v>
+        <v>413</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>1283</v>
+        <v>681</v>
       </c>
       <c r="C168" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>1284</v>
+        <v>1494</v>
       </c>
       <c r="C169" s="27" t="s">
-        <v>416</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -11601,10 +10189,10 @@
         <v>255</v>
       </c>
       <c r="B170" s="25" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C170" s="27" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -11612,30 +10200,32 @@
         <v>255</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C171" s="27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="27" t="s">
-        <v>369</v>
+        <v>255</v>
       </c>
       <c r="B172" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="C172" s="27"/>
+        <v>1285</v>
+      </c>
+      <c r="C172" s="27" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>682</v>
+        <v>1286</v>
       </c>
       <c r="C173" s="27" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -11643,7 +10233,7 @@
         <v>369</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C174" s="27"/>
     </row>
@@ -11652,32 +10242,30 @@
         <v>254</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>683</v>
-      </c>
-      <c r="C175" s="27">
-        <v>32</v>
+        <v>682</v>
+      </c>
+      <c r="C175" s="27" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="27" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>684</v>
-      </c>
-      <c r="C176" s="27">
-        <v>0</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C176" s="27"/>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C177" s="27">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -11685,10 +10273,10 @@
         <v>254</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C178" s="27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -11696,10 +10284,10 @@
         <v>254</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C179" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -11707,10 +10295,10 @@
         <v>254</v>
       </c>
       <c r="B180" s="25" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C180" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -11718,10 +10306,10 @@
         <v>254</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C181" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -11729,10 +10317,10 @@
         <v>254</v>
       </c>
       <c r="B182" s="25" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C182" s="27">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -11740,10 +10328,10 @@
         <v>254</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C183" s="27">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -11751,10 +10339,10 @@
         <v>254</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C184" s="27">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -11762,52 +10350,52 @@
         <v>254</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C185" s="27">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="27" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="C186" s="27"/>
+        <v>692</v>
+      </c>
+      <c r="C186" s="27">
+        <v>240</v>
+      </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="27" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C187" s="27">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="27" t="s">
-        <v>260</v>
+        <v>369</v>
       </c>
       <c r="B188" s="25" t="s">
-        <v>695</v>
-      </c>
-      <c r="C188" s="27">
-        <v>2</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C188" s="27"/>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="27" t="s">
         <v>260</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>1628</v>
-      </c>
-      <c r="C189" s="27" t="s">
-        <v>160</v>
+        <v>694</v>
+      </c>
+      <c r="C189" s="27">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -11815,10 +10403,10 @@
         <v>260</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>696</v>
-      </c>
-      <c r="C190" s="27" t="s">
-        <v>41</v>
+        <v>695</v>
+      </c>
+      <c r="C190" s="27">
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -11826,10 +10414,10 @@
         <v>260</v>
       </c>
       <c r="B191" s="25" t="s">
-        <v>697</v>
+        <v>1628</v>
       </c>
       <c r="C191" s="27" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -11837,10 +10425,10 @@
         <v>260</v>
       </c>
       <c r="B192" s="25" t="s">
-        <v>1634</v>
+        <v>696</v>
       </c>
       <c r="C192" s="27" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -11848,10 +10436,10 @@
         <v>260</v>
       </c>
       <c r="B193" s="25" t="s">
-        <v>1633</v>
+        <v>697</v>
       </c>
       <c r="C193" s="27" t="s">
-        <v>1630</v>
+        <v>72</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -11859,10 +10447,10 @@
         <v>260</v>
       </c>
       <c r="B194" s="25" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
       <c r="C194" s="27" t="s">
-        <v>1635</v>
+        <v>93</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -11870,10 +10458,10 @@
         <v>260</v>
       </c>
       <c r="B195" s="25" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="C195" s="27" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -11881,10 +10469,10 @@
         <v>260</v>
       </c>
       <c r="B196" s="25" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="C196" s="27" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -11892,10 +10480,10 @@
         <v>260</v>
       </c>
       <c r="B197" s="25" t="s">
-        <v>1631</v>
+        <v>1637</v>
       </c>
       <c r="C197" s="27" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -11903,10 +10491,10 @@
         <v>260</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>698</v>
+        <v>1636</v>
       </c>
       <c r="C198" s="27" t="s">
-        <v>89</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -11914,10 +10502,10 @@
         <v>260</v>
       </c>
       <c r="B199" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="C199" s="27">
-        <v>9</v>
+        <v>1631</v>
+      </c>
+      <c r="C199" s="27" t="s">
+        <v>1639</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -11925,10 +10513,10 @@
         <v>260</v>
       </c>
       <c r="B200" s="25" t="s">
-        <v>700</v>
-      </c>
-      <c r="C200" s="27">
-        <v>10</v>
+        <v>698</v>
+      </c>
+      <c r="C200" s="27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -11936,10 +10524,10 @@
         <v>260</v>
       </c>
       <c r="B201" s="25" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C201" s="27">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -11947,10 +10535,10 @@
         <v>260</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C202" s="27">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -11958,10 +10546,10 @@
         <v>260</v>
       </c>
       <c r="B203" s="25" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C203" s="27">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -11969,10 +10557,10 @@
         <v>260</v>
       </c>
       <c r="B204" s="25" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C204" s="27">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -11980,10 +10568,10 @@
         <v>260</v>
       </c>
       <c r="B205" s="25" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C205" s="27">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -11991,10 +10579,10 @@
         <v>260</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C206" s="27">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -12002,10 +10590,10 @@
         <v>260</v>
       </c>
       <c r="B207" s="25" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C207" s="27">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -12013,10 +10601,10 @@
         <v>260</v>
       </c>
       <c r="B208" s="25" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C208" s="27">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -12024,10 +10612,10 @@
         <v>260</v>
       </c>
       <c r="B209" s="25" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C209" s="27">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -12035,10 +10623,10 @@
         <v>260</v>
       </c>
       <c r="B210" s="25" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C210" s="27">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -12046,10 +10634,10 @@
         <v>260</v>
       </c>
       <c r="B211" s="25" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C211" s="27">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -12057,10 +10645,10 @@
         <v>260</v>
       </c>
       <c r="B212" s="25" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C212" s="27">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -12068,10 +10656,10 @@
         <v>260</v>
       </c>
       <c r="B213" s="25" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C213" s="27">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -12079,10 +10667,10 @@
         <v>260</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C214" s="27">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -12090,10 +10678,10 @@
         <v>260</v>
       </c>
       <c r="B215" s="25" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C215" s="27">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -12101,10 +10689,10 @@
         <v>260</v>
       </c>
       <c r="B216" s="25" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C216" s="27">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -12112,10 +10700,10 @@
         <v>260</v>
       </c>
       <c r="B217" s="25" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C217" s="27">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -12123,10 +10711,10 @@
         <v>260</v>
       </c>
       <c r="B218" s="25" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C218" s="27">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -12134,10 +10722,10 @@
         <v>260</v>
       </c>
       <c r="B219" s="25" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C219" s="27">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -12145,10 +10733,10 @@
         <v>260</v>
       </c>
       <c r="B220" s="25" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C220" s="27">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -12156,10 +10744,10 @@
         <v>260</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C221" s="27">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -12167,10 +10755,10 @@
         <v>260</v>
       </c>
       <c r="B222" s="25" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C222" s="27">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -12178,40 +10766,40 @@
         <v>260</v>
       </c>
       <c r="B223" s="25" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C223" s="27">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B224" s="25" t="s">
+        <v>722</v>
+      </c>
+      <c r="C224" s="27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B225" s="25" t="s">
+        <v>723</v>
+      </c>
+      <c r="C225" s="27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="B224" s="26" t="s">
+      <c r="B226" s="26" t="s">
         <v>783</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="B225" s="25" t="s">
-        <v>784</v>
-      </c>
-      <c r="C225" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="B226" s="25" t="s">
-        <v>785</v>
-      </c>
-      <c r="C226" s="26" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -12219,10 +10807,10 @@
         <v>254</v>
       </c>
       <c r="B227" s="25" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C227" s="26" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -12230,10 +10818,10 @@
         <v>254</v>
       </c>
       <c r="B228" s="25" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C228" s="26" t="s">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -12241,10 +10829,10 @@
         <v>254</v>
       </c>
       <c r="B229" s="25" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C229" s="26" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -12252,10 +10840,10 @@
         <v>254</v>
       </c>
       <c r="B230" s="25" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C230" s="26" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -12263,10 +10851,10 @@
         <v>254</v>
       </c>
       <c r="B231" s="25" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C231" s="26" t="s">
-        <v>263</v>
+        <v>41</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -12274,10 +10862,10 @@
         <v>254</v>
       </c>
       <c r="B232" s="25" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C232" s="26" t="s">
-        <v>262</v>
+        <v>72</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -12285,10 +10873,10 @@
         <v>254</v>
       </c>
       <c r="B233" s="25" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C233" s="26" t="s">
-        <v>802</v>
+        <v>263</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -12296,10 +10884,10 @@
         <v>254</v>
       </c>
       <c r="B234" s="25" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C234" s="26" t="s">
-        <v>803</v>
+        <v>262</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -12307,10 +10895,10 @@
         <v>254</v>
       </c>
       <c r="B235" s="25" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C235" s="26" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -12318,10 +10906,10 @@
         <v>254</v>
       </c>
       <c r="B236" s="25" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C236" s="26" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -12329,10 +10917,10 @@
         <v>254</v>
       </c>
       <c r="B237" s="25" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C237" s="26" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -12340,10 +10928,10 @@
         <v>254</v>
       </c>
       <c r="B238" s="25" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C238" s="26" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -12351,10 +10939,10 @@
         <v>254</v>
       </c>
       <c r="B239" s="25" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C239" s="26" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -12362,10 +10950,10 @@
         <v>254</v>
       </c>
       <c r="B240" s="25" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C240" s="26" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -12373,10 +10961,10 @@
         <v>254</v>
       </c>
       <c r="B241" s="25" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C241" s="26" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -12384,32 +10972,32 @@
         <v>254</v>
       </c>
       <c r="B242" s="25" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C242" s="26" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B243" s="26" t="s">
-        <v>825</v>
+      <c r="B243" s="25" t="s">
+        <v>800</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>834</v>
+      <c r="B244" s="25" t="s">
+        <v>801</v>
       </c>
       <c r="C244" s="26" t="s">
-        <v>835</v>
+        <v>811</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -12417,21 +11005,21 @@
         <v>254</v>
       </c>
       <c r="B245" s="26" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="C245" s="26" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B246" s="26" t="s">
-        <v>1290</v>
+      <c r="B246" s="2" t="s">
+        <v>834</v>
       </c>
       <c r="C246" s="26" t="s">
-        <v>203</v>
+        <v>835</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -12439,10 +11027,10 @@
         <v>254</v>
       </c>
       <c r="B247" s="26" t="s">
-        <v>1294</v>
+        <v>845</v>
       </c>
       <c r="C247" s="26" t="s">
-        <v>1107</v>
+        <v>837</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -12450,10 +11038,10 @@
         <v>254</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="C248" s="26" t="s">
-        <v>428</v>
+        <v>203</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -12461,10 +11049,10 @@
         <v>254</v>
       </c>
       <c r="B249" s="26" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C249" s="26" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -12472,10 +11060,10 @@
         <v>254</v>
       </c>
       <c r="B250" s="26" t="s">
-        <v>1498</v>
+        <v>1298</v>
       </c>
       <c r="C250" s="26" t="s">
-        <v>919</v>
+        <v>428</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -12483,10 +11071,10 @@
         <v>254</v>
       </c>
       <c r="B251" s="26" t="s">
-        <v>1499</v>
+        <v>1299</v>
       </c>
       <c r="C251" s="26" t="s">
-        <v>222</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -12494,10 +11082,10 @@
         <v>254</v>
       </c>
       <c r="B252" s="26" t="s">
-        <v>1113</v>
+        <v>1498</v>
       </c>
       <c r="C252" s="26" t="s">
-        <v>1235</v>
+        <v>919</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -12505,10 +11093,10 @@
         <v>254</v>
       </c>
       <c r="B253" s="26" t="s">
-        <v>1114</v>
+        <v>1499</v>
       </c>
       <c r="C253" s="26" t="s">
-        <v>1287</v>
+        <v>222</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -12516,10 +11104,10 @@
         <v>254</v>
       </c>
       <c r="B254" s="26" t="s">
-        <v>1253</v>
+        <v>1113</v>
       </c>
       <c r="C254" s="26" t="s">
-        <v>1288</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -12527,18 +11115,21 @@
         <v>254</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>1254</v>
+        <v>1114</v>
       </c>
       <c r="C255" s="26" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="26" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B256" s="26" t="s">
-        <v>896</v>
+        <v>1253</v>
+      </c>
+      <c r="C256" s="26" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -12546,21 +11137,18 @@
         <v>254</v>
       </c>
       <c r="B257" s="26" t="s">
-        <v>890</v>
+        <v>1254</v>
       </c>
       <c r="C257" s="26" t="s">
-        <v>263</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="26" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B258" s="26" t="s">
-        <v>891</v>
-      </c>
-      <c r="C258" s="26" t="s">
-        <v>262</v>
+        <v>896</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -12568,10 +11156,10 @@
         <v>254</v>
       </c>
       <c r="B259" s="26" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C259" s="26" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -12579,10 +11167,10 @@
         <v>254</v>
       </c>
       <c r="B260" s="26" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C260" s="26" t="s">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -12590,10 +11178,10 @@
         <v>254</v>
       </c>
       <c r="B261" s="26" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C261" s="26" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -12601,10 +11189,10 @@
         <v>254</v>
       </c>
       <c r="B262" s="26" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C262" s="26" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -12612,18 +11200,21 @@
         <v>254</v>
       </c>
       <c r="B263" s="26" t="s">
-        <v>1380</v>
+        <v>894</v>
       </c>
       <c r="C263" s="26" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="26" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B264" s="26" t="s">
-        <v>1330</v>
+        <v>895</v>
+      </c>
+      <c r="C264" s="26" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -12631,21 +11222,18 @@
         <v>254</v>
       </c>
       <c r="B265" s="26" t="s">
-        <v>1331</v>
+        <v>1380</v>
       </c>
       <c r="C265" s="26" t="s">
-        <v>263</v>
+        <v>72</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="26" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B266" s="26" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C266" s="26" t="s">
-        <v>262</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -12653,10 +11241,10 @@
         <v>254</v>
       </c>
       <c r="B267" s="26" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C267" s="26" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -12664,10 +11252,10 @@
         <v>254</v>
       </c>
       <c r="B268" s="26" t="s">
-        <v>1375</v>
+        <v>1332</v>
       </c>
       <c r="C268" s="26" t="s">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -12675,9 +11263,31 @@
         <v>254</v>
       </c>
       <c r="B269" s="26" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C269" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B270" s="26" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C270" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B271" s="26" t="s">
         <v>1376</v>
       </c>
-      <c r="C269" s="26" t="s">
+      <c r="C271" s="26" t="s">
         <v>1377</v>
       </c>
     </row>
@@ -12691,7 +11301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F250626D-250B-4167-9842-5482DF23271D}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F128"/>
@@ -12700,7 +11310,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="16.5"/>
@@ -12910,7 +11520,7 @@
         <v>741</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>467</v>
@@ -13074,7 +11684,7 @@
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1">
       <c r="A22" s="20" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>741</v>
@@ -13086,24 +11696,24 @@
         <v>1644</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1">
       <c r="A23" s="20" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>741</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>1313</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1">
@@ -14595,7 +13205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE116"/>
@@ -17728,11 +16338,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E536BB9-2F6B-46F9-B5CA-2EDF567D7AD3}">
   <dimension ref="A1:CN134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="BL51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -25650,7 +24260,7 @@
         <v>1170</v>
       </c>
       <c r="AB73" s="17" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="AC73" s="17" t="s">
         <v>1191</v>
@@ -27362,7 +25972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1D2F1B-AB5E-4B78-89E3-2949A771ABA0}">
   <dimension ref="A1:AN61"/>
   <sheetViews>
@@ -30059,7 +28669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139DEB0C-7825-417D-A64F-8D3BA14ACEA0}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D79"/>
@@ -31109,7 +29719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7136B680-2DFA-4A63-89D9-5F76C51E56A3}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -31543,7 +30153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8243684B-26F0-48AD-9220-25F8EBBE7936}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
@@ -31586,108 +30196,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="231" customFormat="1">
-      <c r="A1" s="350" t="s">
+      <c r="A1" s="313" t="s">
         <v>1395</v>
       </c>
-      <c r="B1" s="350"/>
-      <c r="C1" s="350"/>
-      <c r="D1" s="350" t="s">
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313" t="s">
         <v>1396</v>
       </c>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350" t="s">
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="313" t="s">
         <v>1397</v>
       </c>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350" t="s">
+      <c r="H1" s="313"/>
+      <c r="I1" s="313"/>
+      <c r="J1" s="313" t="s">
         <v>1398</v>
       </c>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
-      <c r="M1" s="350" t="s">
+      <c r="K1" s="313"/>
+      <c r="L1" s="313"/>
+      <c r="M1" s="313" t="s">
         <v>1399</v>
       </c>
-      <c r="N1" s="350"/>
-      <c r="O1" s="350"/>
-      <c r="P1" s="350" t="s">
+      <c r="N1" s="313"/>
+      <c r="O1" s="313"/>
+      <c r="P1" s="313" t="s">
         <v>1502</v>
       </c>
-      <c r="Q1" s="350"/>
-      <c r="R1" s="350"/>
-      <c r="S1" s="350" t="s">
+      <c r="Q1" s="313"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="313" t="s">
         <v>1504</v>
       </c>
-      <c r="T1" s="350"/>
-      <c r="U1" s="350"/>
-      <c r="V1" s="350" t="s">
+      <c r="T1" s="313"/>
+      <c r="U1" s="313"/>
+      <c r="V1" s="313" t="s">
         <v>1505</v>
       </c>
-      <c r="W1" s="350"/>
-      <c r="X1" s="350"/>
-      <c r="Y1" s="350" t="s">
+      <c r="W1" s="313"/>
+      <c r="X1" s="313"/>
+      <c r="Y1" s="313" t="s">
         <v>1506</v>
       </c>
-      <c r="Z1" s="350"/>
-      <c r="AA1" s="350"/>
-      <c r="AB1" s="350" t="s">
+      <c r="Z1" s="313"/>
+      <c r="AA1" s="313"/>
+      <c r="AB1" s="313" t="s">
         <v>1507</v>
       </c>
-      <c r="AC1" s="350"/>
-      <c r="AD1" s="350"/>
+      <c r="AC1" s="313"/>
+      <c r="AD1" s="313"/>
     </row>
     <row r="2" spans="1:30" s="232" customFormat="1">
-      <c r="A2" s="351" t="s">
+      <c r="A2" s="314" t="s">
         <v>1381</v>
       </c>
-      <c r="B2" s="351"/>
-      <c r="C2" s="351"/>
-      <c r="D2" s="351" t="s">
+      <c r="B2" s="314"/>
+      <c r="C2" s="314"/>
+      <c r="D2" s="314" t="s">
         <v>1382</v>
       </c>
-      <c r="E2" s="351"/>
-      <c r="F2" s="351"/>
-      <c r="G2" s="351" t="s">
+      <c r="E2" s="314"/>
+      <c r="F2" s="314"/>
+      <c r="G2" s="314" t="s">
         <v>1392</v>
       </c>
-      <c r="H2" s="351"/>
-      <c r="I2" s="351"/>
-      <c r="J2" s="351" t="s">
+      <c r="H2" s="314"/>
+      <c r="I2" s="314"/>
+      <c r="J2" s="314" t="s">
         <v>1393</v>
       </c>
-      <c r="K2" s="351"/>
-      <c r="L2" s="351"/>
-      <c r="M2" s="351" t="s">
+      <c r="K2" s="314"/>
+      <c r="L2" s="314"/>
+      <c r="M2" s="314" t="s">
         <v>1394</v>
       </c>
-      <c r="N2" s="351"/>
-      <c r="O2" s="351"/>
-      <c r="P2" s="351" t="s">
+      <c r="N2" s="314"/>
+      <c r="O2" s="314"/>
+      <c r="P2" s="314" t="s">
         <v>1503</v>
       </c>
-      <c r="Q2" s="351"/>
-      <c r="R2" s="351"/>
-      <c r="S2" s="351" t="s">
+      <c r="Q2" s="314"/>
+      <c r="R2" s="314"/>
+      <c r="S2" s="314" t="s">
         <v>1508</v>
       </c>
-      <c r="T2" s="351"/>
-      <c r="U2" s="351"/>
-      <c r="V2" s="351" t="s">
+      <c r="T2" s="314"/>
+      <c r="U2" s="314"/>
+      <c r="V2" s="314" t="s">
         <v>1509</v>
       </c>
-      <c r="W2" s="351"/>
-      <c r="X2" s="351"/>
-      <c r="Y2" s="351" t="s">
+      <c r="W2" s="314"/>
+      <c r="X2" s="314"/>
+      <c r="Y2" s="314" t="s">
         <v>1510</v>
       </c>
-      <c r="Z2" s="351"/>
-      <c r="AA2" s="351"/>
-      <c r="AB2" s="351" t="s">
+      <c r="Z2" s="314"/>
+      <c r="AA2" s="314"/>
+      <c r="AB2" s="314" t="s">
         <v>1511</v>
       </c>
-      <c r="AC2" s="351"/>
-      <c r="AD2" s="351"/>
+      <c r="AC2" s="314"/>
+      <c r="AD2" s="314"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="238" cm="1">
